--- a/capiq_data/in_process_data/IQ873917.xlsx
+++ b/capiq_data/in_process_data/IQ873917.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AEC3C2-A124-4187-81AC-6D051C7119BD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F395B25-A5D0-49AA-BD3E-C84DB79F0C26}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"71500fe2-68a6-4390-a11f-1f2ac9b03bc4"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"bffa29e4-25d9-421c-8ffa-fd8a1861be45"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>15.076000000000001</v>
+        <v>6.2549999999999999</v>
       </c>
       <c r="D2">
-        <v>840.79</v>
+        <v>283.471</v>
       </c>
       <c r="E2">
-        <v>758.73400000000004</v>
+        <v>178.38</v>
       </c>
       <c r="F2">
-        <v>23.603999999999999</v>
+        <v>18.222000000000001</v>
       </c>
       <c r="G2">
-        <v>1319.07</v>
+        <v>393.012</v>
       </c>
       <c r="H2">
-        <v>2121.4050000000002</v>
+        <v>525.76400000000001</v>
       </c>
       <c r="I2">
-        <v>489.411</v>
+        <v>172.196</v>
       </c>
       <c r="J2">
-        <v>406.51900000000001</v>
+        <v>37.661000000000001</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>34.749000000000002</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,247 +892,247 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1075.038</v>
+        <v>384.14699999999999</v>
       </c>
       <c r="O2">
-        <v>1661.807</v>
+        <v>432.67</v>
       </c>
       <c r="P2">
-        <v>745.98699999999997</v>
+        <v>80.613</v>
       </c>
       <c r="Q2">
-        <v>146.6</v>
+        <v>13.895</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>8146</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>459.59800000000001</v>
+        <v>93.093999999999994</v>
       </c>
       <c r="U2">
-        <v>250.86199999999999</v>
+        <v>57.911000000000001</v>
       </c>
       <c r="V2">
-        <v>14.384</v>
+        <v>29.686</v>
       </c>
       <c r="W2">
-        <v>-2.8450000000000002</v>
+        <v>0</v>
       </c>
       <c r="X2">
-        <v>131.07900000000001</v>
+        <v>-22.6</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>138.43899999999999</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>15.076000000000001</v>
+        <v>6.2549999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>-21.483000000000001</v>
+        <v>-2.1360000000000001</v>
       </c>
       <c r="D3">
-        <v>512.01499999999999</v>
+        <v>188.31800000000001</v>
       </c>
       <c r="E3">
-        <v>572.93700000000001</v>
+        <v>146</v>
       </c>
       <c r="F3">
-        <v>16.248000000000001</v>
+        <v>12.747999999999999</v>
       </c>
       <c r="G3">
-        <v>1014.4640000000001</v>
+        <v>376.28899999999999</v>
       </c>
       <c r="H3">
-        <v>1831.49</v>
+        <v>508.53100000000001</v>
       </c>
       <c r="I3">
-        <v>348.25</v>
+        <v>164.096</v>
       </c>
       <c r="J3">
-        <v>456.11799999999999</v>
+        <v>38.182000000000002</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>54.142000000000003</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-131.26900000000001</v>
+        <v>-1.8380000000000001</v>
       </c>
       <c r="N3">
-        <v>717.71500000000003</v>
+        <v>369.02499999999998</v>
       </c>
       <c r="O3">
-        <v>1398.979</v>
+        <v>417.61700000000002</v>
       </c>
       <c r="P3">
-        <v>617.26900000000001</v>
+        <v>100.402</v>
       </c>
       <c r="Q3">
-        <v>-101.208</v>
+        <v>17.827999999999999</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>432.51100000000002</v>
+        <v>90.914000000000001</v>
       </c>
       <c r="U3">
-        <v>149.654</v>
+        <v>75.739000000000004</v>
       </c>
       <c r="V3">
-        <v>31.503</v>
+        <v>1.365</v>
       </c>
       <c r="W3">
-        <v>-2.8450000000000002</v>
+        <v>-1.798</v>
       </c>
       <c r="X3">
-        <v>-133.07499999999999</v>
+        <v>16.027999999999999</v>
       </c>
       <c r="Y3">
-        <v>45.658999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-5.7000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>-21.483000000000001</v>
+        <v>-2.1360000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>0.67800000000000005</v>
+        <v>0.79400000000000004</v>
       </c>
       <c r="D4">
-        <v>758.44100000000003</v>
+        <v>258.904</v>
       </c>
       <c r="E4">
-        <v>575.029</v>
+        <v>166.18600000000001</v>
       </c>
       <c r="F4">
-        <v>48.845999999999997</v>
+        <v>19.213000000000001</v>
       </c>
       <c r="G4">
-        <v>990.29</v>
+        <v>416.49700000000001</v>
       </c>
       <c r="H4">
-        <v>1863.4739999999999</v>
+        <v>552.29300000000001</v>
       </c>
       <c r="I4">
-        <v>391.58499999999998</v>
+        <v>187.71299999999999</v>
       </c>
       <c r="J4">
-        <v>416.02100000000002</v>
+        <v>38.073999999999998</v>
       </c>
       <c r="K4">
-        <v>27.509</v>
+        <v>57.232999999999997</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>-1.258</v>
       </c>
       <c r="N4">
-        <v>791.81600000000003</v>
+        <v>412.38200000000001</v>
       </c>
       <c r="O4">
-        <v>1441.028</v>
+        <v>460.26100000000002</v>
       </c>
       <c r="P4">
-        <v>592.48599999999999</v>
+        <v>103.36799999999999</v>
       </c>
       <c r="Q4">
-        <v>-57.494</v>
+        <v>1.028</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>422.44600000000003</v>
+        <v>92.031999999999996</v>
       </c>
       <c r="U4">
-        <v>92.16</v>
+        <v>76.766999999999996</v>
       </c>
       <c r="V4">
-        <v>40.930999999999997</v>
+        <v>5.3470000000000004</v>
       </c>
       <c r="W4">
-        <v>-2.8620000000000001</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>-60.079000000000001</v>
+        <v>2.8359999999999999</v>
       </c>
       <c r="Y4">
-        <v>53.247999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.78900000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.67800000000000005</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>41.658999999999999</v>
+        <v>6.7169999999999996</v>
       </c>
       <c r="D5">
-        <v>835.37099999999998</v>
+        <v>332.39</v>
       </c>
       <c r="E5">
-        <v>614.07000000000005</v>
+        <v>206.25</v>
       </c>
       <c r="F5">
-        <v>96.295000000000002</v>
+        <v>29.382999999999999</v>
       </c>
       <c r="G5">
-        <v>1057.0519999999999</v>
+        <v>471.18700000000001</v>
       </c>
       <c r="H5">
-        <v>1959.2829999999999</v>
+        <v>621.25699999999995</v>
       </c>
       <c r="I5">
-        <v>435.16699999999997</v>
+        <v>228.85599999999999</v>
       </c>
       <c r="J5">
-        <v>445.34100000000001</v>
+        <v>36.301000000000002</v>
       </c>
       <c r="K5">
-        <v>22</v>
+        <v>48.716000000000001</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>818.42499999999995</v>
+        <v>475.93900000000002</v>
       </c>
       <c r="O5">
-        <v>1500.567</v>
+        <v>522.49199999999996</v>
       </c>
       <c r="P5">
-        <v>628.649</v>
+        <v>94.924999999999997</v>
       </c>
       <c r="Q5">
-        <v>38.097000000000001</v>
+        <v>6.7130000000000001</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>458.71600000000001</v>
+        <v>98.765000000000001</v>
       </c>
       <c r="U5">
-        <v>130.25700000000001</v>
+        <v>83.48</v>
       </c>
       <c r="V5">
-        <v>70.617000000000004</v>
+        <v>31.175999999999998</v>
       </c>
       <c r="W5">
-        <v>-2.819</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>13.311999999999999</v>
+        <v>-8.9770000000000003</v>
       </c>
       <c r="Y5">
-        <v>55.201999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>6.9000000000000006E-2</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>41.658999999999999</v>
+        <v>6.7169999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>36.698999999999998</v>
+        <v>7.0110000000000001</v>
       </c>
       <c r="D6">
-        <v>790.34</v>
+        <v>359.25200000000001</v>
       </c>
       <c r="E6">
-        <v>604.52200000000005</v>
+        <v>187.25899999999999</v>
       </c>
       <c r="F6">
-        <v>112.744</v>
+        <v>43.929000000000002</v>
       </c>
       <c r="G6">
-        <v>1064.249</v>
+        <v>458.84</v>
       </c>
       <c r="H6">
-        <v>1984.095</v>
+        <v>589.25300000000004</v>
       </c>
       <c r="I6">
-        <v>437.96499999999997</v>
+        <v>215.49799999999999</v>
       </c>
       <c r="J6">
-        <v>531.08799999999997</v>
+        <v>37.985999999999997</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>32.18</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,330 +1224,330 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>791.83600000000001</v>
+        <v>435.101</v>
       </c>
       <c r="O6">
-        <v>1494.2180000000001</v>
+        <v>483.10599999999999</v>
       </c>
       <c r="P6">
-        <v>653.52300000000002</v>
+        <v>78.918000000000006</v>
       </c>
       <c r="Q6">
-        <v>44.951000000000001</v>
+        <v>20.67</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>6208</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>489.87700000000001</v>
+        <v>106.14700000000001</v>
       </c>
       <c r="U6">
-        <v>175.208</v>
+        <v>97.215000000000003</v>
       </c>
       <c r="V6">
-        <v>53.975000000000001</v>
+        <v>41.201999999999998</v>
       </c>
       <c r="W6">
-        <v>-2.7909999999999999</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>5.1779999999999999</v>
+        <v>-15.843999999999999</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>7.5410000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>36.698999999999998</v>
+        <v>7.0110000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>-19.588999999999999</v>
+        <v>-1.0489999999999999</v>
       </c>
       <c r="D7">
-        <v>486.42500000000001</v>
+        <v>228.04499999999999</v>
       </c>
       <c r="E7">
-        <v>507.12900000000002</v>
+        <v>155.59800000000001</v>
       </c>
       <c r="F7">
-        <v>30.579000000000001</v>
+        <v>15.032999999999999</v>
       </c>
       <c r="G7">
-        <v>960.83699999999999</v>
+        <v>393.76499999999999</v>
       </c>
       <c r="H7">
-        <v>1893.14</v>
+        <v>536.07799999999997</v>
       </c>
       <c r="I7">
-        <v>354.834</v>
+        <v>160.58699999999999</v>
       </c>
       <c r="J7">
-        <v>551.02099999999996</v>
+        <v>37.261000000000003</v>
       </c>
       <c r="K7">
-        <v>60</v>
+        <v>41.140999999999998</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-62.85</v>
+        <v>-0.93899999999999995</v>
       </c>
       <c r="N7">
-        <v>713.66499999999996</v>
+        <v>371.73700000000002</v>
       </c>
       <c r="O7">
-        <v>1433.6410000000001</v>
+        <v>431.49299999999999</v>
       </c>
       <c r="P7">
-        <v>683.48099999999999</v>
+        <v>86.980999999999995</v>
       </c>
       <c r="Q7">
-        <v>-48.218000000000004</v>
+        <v>-8.1010000000000009</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>459.49900000000002</v>
+        <v>104.58499999999999</v>
       </c>
       <c r="U7">
-        <v>125.56100000000001</v>
+        <v>98.61</v>
       </c>
       <c r="V7">
-        <v>-29.224</v>
+        <v>-15.022</v>
       </c>
       <c r="W7">
-        <v>-2.7909999999999999</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>-6.64</v>
+        <v>8.1530000000000005</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-12.32</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>-19.588999999999999</v>
+        <v>-1.0489999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>5.0359999999999996</v>
+        <v>-3.919</v>
       </c>
       <c r="D8">
-        <v>648.06299999999999</v>
+        <v>236.34100000000001</v>
       </c>
       <c r="E8">
-        <v>518.53200000000004</v>
+        <v>168.03899999999999</v>
       </c>
       <c r="F8">
-        <v>56.271000000000001</v>
+        <v>12.978999999999999</v>
       </c>
       <c r="G8">
-        <v>932.21799999999996</v>
+        <v>412.44600000000003</v>
       </c>
       <c r="H8">
-        <v>1902.184</v>
+        <v>551.97400000000005</v>
       </c>
       <c r="I8">
-        <v>362.185</v>
+        <v>172.56800000000001</v>
       </c>
       <c r="J8">
-        <v>559.649</v>
+        <v>29.463000000000001</v>
       </c>
       <c r="K8">
-        <v>69.977999999999994</v>
+        <v>28.361000000000001</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-11.885</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>-9.4770000000000003</v>
       </c>
       <c r="N8">
-        <v>708.18</v>
+        <v>367.84</v>
       </c>
       <c r="O8">
-        <v>1438.654</v>
+        <v>419.77199999999999</v>
       </c>
       <c r="P8">
-        <v>692.12900000000002</v>
+        <v>63.686</v>
       </c>
       <c r="Q8">
-        <v>-23.620999999999999</v>
+        <v>-8.7279999999999998</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>463.53</v>
+        <v>132.202</v>
       </c>
       <c r="U8">
-        <v>102.628</v>
+        <v>94.93</v>
       </c>
       <c r="V8">
-        <v>1.298</v>
+        <v>-18.72</v>
       </c>
       <c r="W8">
-        <v>-3.9060000000000001</v>
+        <v>-2.2450000000000001</v>
       </c>
       <c r="X8">
-        <v>-5.1029999999999998</v>
+        <v>8.4320000000000004</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-0.35199999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>5.0339999999999998</v>
+        <v>-3.919</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>35.82</v>
+        <v>2.7029999999999998</v>
       </c>
       <c r="D9">
-        <v>820.47699999999998</v>
+        <v>299.89499999999998</v>
       </c>
       <c r="E9">
-        <v>675.84500000000003</v>
+        <v>193.54599999999999</v>
       </c>
       <c r="F9">
-        <v>98.823999999999998</v>
+        <v>20.251999999999999</v>
       </c>
       <c r="G9">
-        <v>1094.0619999999999</v>
+        <v>424.63099999999997</v>
       </c>
       <c r="H9">
-        <v>2070.7069999999999</v>
+        <v>567.64599999999996</v>
       </c>
       <c r="I9">
-        <v>431.73399999999998</v>
+        <v>189.874</v>
       </c>
       <c r="J9">
-        <v>547.95299999999997</v>
+        <v>27.193999999999999</v>
       </c>
       <c r="K9">
-        <v>132.43299999999999</v>
+        <v>36.734000000000002</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-2.3420000000000001</v>
       </c>
       <c r="N9">
-        <v>881.09799999999996</v>
+        <v>383.68799999999999</v>
       </c>
       <c r="O9">
-        <v>1578.402</v>
+        <v>432.54899999999998</v>
       </c>
       <c r="P9">
-        <v>746.43799999999999</v>
+        <v>69.757000000000005</v>
       </c>
       <c r="Q9">
-        <v>-18.245000000000001</v>
+        <v>-2.3079999999999998</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>492.30500000000001</v>
+        <v>135.09700000000001</v>
       </c>
       <c r="U9">
-        <v>86.965999999999994</v>
+        <v>90.414000000000001</v>
       </c>
       <c r="V9">
-        <v>-41.295000000000002</v>
+        <v>-7.6070000000000002</v>
       </c>
       <c r="W9">
-        <v>-3.907</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>40.999000000000002</v>
+        <v>5.4080000000000004</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-5.08</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="AA9">
-        <v>35.81</v>
+        <v>2.7029999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>56.329000000000001</v>
+        <v>2.4950000000000001</v>
       </c>
       <c r="D10">
-        <v>932.14</v>
+        <v>308.68299999999999</v>
       </c>
       <c r="E10">
-        <v>734.46100000000001</v>
+        <v>148.44900000000001</v>
       </c>
       <c r="F10">
-        <v>93.247</v>
+        <v>19.562000000000001</v>
       </c>
       <c r="G10">
-        <v>1063.8130000000001</v>
+        <v>371.72399999999999</v>
       </c>
       <c r="H10">
-        <v>1863.6130000000001</v>
+        <v>515.72</v>
       </c>
       <c r="I10">
-        <v>519.404</v>
+        <v>161.16499999999999</v>
       </c>
       <c r="J10">
-        <v>399.23700000000002</v>
+        <v>32.305</v>
       </c>
       <c r="K10">
-        <v>10.368</v>
+        <v>30.135999999999999</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>834.84900000000005</v>
+        <v>325.96199999999999</v>
       </c>
       <c r="O10">
-        <v>1320.4549999999999</v>
+        <v>384.166</v>
       </c>
       <c r="P10">
-        <v>471.50400000000002</v>
+        <v>64.790000000000006</v>
       </c>
       <c r="Q10">
-        <v>-19.856000000000002</v>
+        <v>-2.0720000000000001</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>543.15800000000002</v>
+        <v>131.554</v>
       </c>
       <c r="U10">
-        <v>63.301000000000002</v>
+        <v>76.006</v>
       </c>
       <c r="V10">
-        <v>120.949</v>
+        <v>4.6980000000000004</v>
       </c>
       <c r="W10">
-        <v>-3.907</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>-126.212</v>
+        <v>-4.8470000000000004</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-0.66600000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>56.329000000000001</v>
+        <v>2.4950000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>-29.911999999999999</v>
+        <v>-9.9009999999999998</v>
       </c>
       <c r="D11">
-        <v>567.43899999999996</v>
+        <v>184.22800000000001</v>
       </c>
       <c r="E11">
-        <v>697.54700000000003</v>
+        <v>113.83</v>
       </c>
       <c r="F11">
-        <v>22.504999999999999</v>
+        <v>2.5019999999999998</v>
       </c>
       <c r="G11">
-        <v>1006.544</v>
+        <v>338.33300000000003</v>
       </c>
       <c r="H11">
-        <v>1814.213</v>
+        <v>479.79199999999997</v>
       </c>
       <c r="I11">
-        <v>429.411</v>
+        <v>133.571</v>
       </c>
       <c r="J11">
-        <v>392.06900000000002</v>
+        <v>52.167999999999999</v>
       </c>
       <c r="K11">
-        <v>81.876000000000005</v>
+        <v>33.591000000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-15.74</v>
+        <v>-0.34399999999999997</v>
       </c>
       <c r="N11">
-        <v>824.404</v>
+        <v>281.69799999999998</v>
       </c>
       <c r="O11">
-        <v>1302.739</v>
+        <v>353.50700000000001</v>
       </c>
       <c r="P11">
-        <v>536.28099999999995</v>
+        <v>88.058999999999997</v>
       </c>
       <c r="Q11">
-        <v>17.488</v>
+        <v>0.497</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>511.47399999999999</v>
+        <v>126.285</v>
       </c>
       <c r="U11">
-        <v>80.789000000000001</v>
+        <v>76.703000000000003</v>
       </c>
       <c r="V11">
-        <v>-32.962000000000003</v>
+        <v>-19.797000000000001</v>
       </c>
       <c r="W11">
-        <v>-3.907</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>53.551000000000002</v>
+        <v>24.986000000000001</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.131</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-29.911999999999999</v>
+        <v>-9.9009999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>7.8869999999999996</v>
+        <v>-2.0129999999999999</v>
       </c>
       <c r="D12">
-        <v>697.64099999999996</v>
+        <v>239.2</v>
       </c>
       <c r="E12">
-        <v>668.024</v>
+        <v>143.577</v>
       </c>
       <c r="F12">
-        <v>59.325000000000003</v>
+        <v>10.56</v>
       </c>
       <c r="G12">
-        <v>999.86699999999996</v>
+        <v>357.96100000000001</v>
       </c>
       <c r="H12">
-        <v>1828.0150000000001</v>
+        <v>500.77600000000001</v>
       </c>
       <c r="I12">
-        <v>402.94499999999999</v>
+        <v>153.333</v>
       </c>
       <c r="J12">
-        <v>387.173</v>
+        <v>52.228999999999999</v>
       </c>
       <c r="K12">
-        <v>129.47900000000001</v>
+        <v>39.311999999999998</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,164 +1722,164 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>849.99800000000005</v>
+        <v>305.03500000000003</v>
       </c>
       <c r="O12">
-        <v>1319.31</v>
+        <v>376.82</v>
       </c>
       <c r="P12">
-        <v>580.846</v>
+        <v>94.430999999999997</v>
       </c>
       <c r="Q12">
-        <v>-2.9239999999999999</v>
+        <v>-4.0979999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>508.70499999999998</v>
+        <v>123.956</v>
       </c>
       <c r="U12">
-        <v>77.864999999999995</v>
+        <v>72.611999999999995</v>
       </c>
       <c r="V12">
-        <v>-8.952</v>
+        <v>-6.2539999999999996</v>
       </c>
       <c r="W12">
-        <v>-4.47</v>
+        <v>-0.75600000000000001</v>
       </c>
       <c r="X12">
-        <v>22.170999999999999</v>
+        <v>4.2850000000000001</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-5.7960000000000003</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>7.8869999999999996</v>
+        <v>-2.0129999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>34.369999999999997</v>
+        <v>0.76900000000000002</v>
       </c>
       <c r="D13">
-        <v>897.31500000000005</v>
+        <v>265.18400000000003</v>
       </c>
       <c r="E13">
-        <v>719.41499999999996</v>
+        <v>162.483</v>
       </c>
       <c r="F13">
-        <v>94.085999999999999</v>
+        <v>14.84</v>
       </c>
       <c r="G13">
-        <v>1076.7809999999999</v>
+        <v>366.97199999999998</v>
       </c>
       <c r="H13">
-        <v>1914.36</v>
+        <v>509.846</v>
       </c>
       <c r="I13">
-        <v>487.31400000000002</v>
+        <v>161.18</v>
       </c>
       <c r="J13">
-        <v>218.11699999999999</v>
+        <v>51.529000000000003</v>
       </c>
       <c r="K13">
-        <v>129.16300000000001</v>
+        <v>45.015000000000001</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>-0.69199999999999995</v>
       </c>
       <c r="N13">
-        <v>1070.9960000000001</v>
+        <v>314.642</v>
       </c>
       <c r="O13">
-        <v>1370.903</v>
+        <v>385.06400000000002</v>
       </c>
       <c r="P13">
-        <v>581.68100000000004</v>
+        <v>100.125</v>
       </c>
       <c r="Q13">
-        <v>5.5910000000000002</v>
+        <v>-4.4210000000000003</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>543.45699999999999</v>
+        <v>124.782</v>
       </c>
       <c r="U13">
-        <v>83.456000000000003</v>
+        <v>67.897999999999996</v>
       </c>
       <c r="V13">
-        <v>30.652000000000001</v>
+        <v>-7.5259999999999998</v>
       </c>
       <c r="W13">
-        <v>-4.468</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>-15.959</v>
+        <v>4.8289999999999997</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>6.1319999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>34.369999999999997</v>
+        <v>0.76900000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>28.253</v>
+        <v>-2.7269999999999999</v>
       </c>
       <c r="D14">
-        <v>906.21299999999997</v>
+        <v>251.95400000000001</v>
       </c>
       <c r="E14">
-        <v>629.03800000000001</v>
+        <v>140.654</v>
       </c>
       <c r="F14">
-        <v>94.558000000000007</v>
+        <v>5.8330000000000002</v>
       </c>
       <c r="G14">
-        <v>1129.588</v>
+        <v>323.25099999999998</v>
       </c>
       <c r="H14">
-        <v>1993.586</v>
+        <v>470.23399999999998</v>
       </c>
       <c r="I14">
-        <v>477.23</v>
+        <v>144.09100000000001</v>
       </c>
       <c r="J14">
-        <v>371.94499999999999</v>
+        <v>34.823999999999998</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>30.09</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,330 +1888,330 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>940.35599999999999</v>
+        <v>305.64299999999997</v>
       </c>
       <c r="O14">
-        <v>1406.9780000000001</v>
+        <v>353.26600000000002</v>
       </c>
       <c r="P14">
-        <v>613.41700000000003</v>
+        <v>80.858000000000004</v>
       </c>
       <c r="Q14">
-        <v>157.14599999999999</v>
+        <v>-12.824999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>586.60799999999995</v>
+        <v>116.968</v>
       </c>
       <c r="U14">
-        <v>240.602</v>
+        <v>29.451000000000001</v>
       </c>
       <c r="V14">
-        <v>145.28299999999999</v>
+        <v>9.91</v>
       </c>
       <c r="W14">
-        <v>-4.4729999999999999</v>
+        <v>-1E-3</v>
       </c>
       <c r="X14">
-        <v>26.498000000000001</v>
+        <v>-17.724</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>5.5279999999999996</v>
+        <v>-8.4689999999999994</v>
       </c>
       <c r="AA14">
-        <v>28.253</v>
+        <v>-2.7269999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>-25.901</v>
+        <v>-2.3620000000000001</v>
       </c>
       <c r="D15">
-        <v>461.87299999999999</v>
+        <v>189.01400000000001</v>
       </c>
       <c r="E15">
-        <v>577.37199999999996</v>
+        <v>177.03700000000001</v>
       </c>
       <c r="F15">
-        <v>32.817</v>
+        <v>6.2729999999999997</v>
       </c>
       <c r="G15">
-        <v>986.91899999999998</v>
+        <v>296.25299999999999</v>
       </c>
       <c r="H15">
-        <v>1869.433</v>
+        <v>455.791</v>
       </c>
       <c r="I15">
-        <v>382.637</v>
+        <v>119.297</v>
       </c>
       <c r="J15">
-        <v>365.82499999999999</v>
+        <v>37.710999999999999</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>14.333</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-17.64</v>
+        <v>-17.193000000000001</v>
       </c>
       <c r="N15">
-        <v>840.93499999999995</v>
+        <v>261.53500000000003</v>
       </c>
       <c r="O15">
-        <v>1301.3889999999999</v>
+        <v>317.71100000000001</v>
       </c>
       <c r="P15">
-        <v>609.63</v>
+        <v>67.238</v>
       </c>
       <c r="Q15">
-        <v>-94.117999999999995</v>
+        <v>-1.7250000000000001</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>568.04399999999998</v>
+        <v>138.08000000000001</v>
       </c>
       <c r="U15">
-        <v>146.48400000000001</v>
+        <v>48.436999999999998</v>
       </c>
       <c r="V15">
-        <v>-70.988</v>
+        <v>-1.698</v>
       </c>
       <c r="W15">
-        <v>-4.4939999999999998</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-12.46</v>
+        <v>9.3610000000000007</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>-1.9E-2</v>
+        <v>-13.124000000000001</v>
       </c>
       <c r="AA15">
-        <v>-25.901</v>
+        <v>-2.3620000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>-12.215</v>
+        <v>2.3809999999999998</v>
       </c>
       <c r="D16">
-        <v>589.56600000000003</v>
+        <v>264.70499999999998</v>
       </c>
       <c r="E16">
-        <v>593.04700000000003</v>
+        <v>204.52699999999999</v>
       </c>
       <c r="F16">
-        <v>44.036999999999999</v>
+        <v>15.092000000000001</v>
       </c>
       <c r="G16">
-        <v>959.39200000000005</v>
+        <v>322.214</v>
       </c>
       <c r="H16">
-        <v>1844.9010000000001</v>
+        <v>491.52499999999998</v>
       </c>
       <c r="I16">
-        <v>377.87200000000001</v>
+        <v>155.67699999999999</v>
       </c>
       <c r="J16">
-        <v>369.03100000000001</v>
+        <v>36.276000000000003</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.776</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>-2.871</v>
       </c>
       <c r="N16">
-        <v>830.46100000000001</v>
+        <v>295.96300000000002</v>
       </c>
       <c r="O16">
-        <v>1295.2139999999999</v>
+        <v>350.70400000000001</v>
       </c>
       <c r="P16">
-        <v>612.88800000000003</v>
+        <v>77.090999999999994</v>
       </c>
       <c r="Q16">
-        <v>-42.006</v>
+        <v>4.4130000000000003</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>549.68700000000001</v>
+        <v>140.821</v>
       </c>
       <c r="U16">
-        <v>104.47799999999999</v>
+        <v>53.905999999999999</v>
       </c>
       <c r="V16">
-        <v>-29.215</v>
+        <v>-2.7410000000000001</v>
       </c>
       <c r="W16">
-        <v>-5.0810000000000004</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-6.93</v>
+        <v>9.4290000000000003</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>8.157</v>
+        <v>-0.23899999999999999</v>
       </c>
       <c r="AA16">
-        <v>-12.215</v>
+        <v>2.3809999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>39.529000000000003</v>
+        <v>-0.89700000000000002</v>
       </c>
       <c r="D17">
-        <v>840.399</v>
+        <v>290.04899999999998</v>
       </c>
       <c r="E17">
-        <v>710.04499999999996</v>
+        <v>217.66</v>
       </c>
       <c r="F17">
-        <v>96.277000000000001</v>
+        <v>12.24</v>
       </c>
       <c r="G17">
-        <v>1099.501</v>
+        <v>331.65</v>
       </c>
       <c r="H17">
-        <v>1983.403</v>
+        <v>504.18099999999998</v>
       </c>
       <c r="I17">
-        <v>507.79700000000003</v>
+        <v>166.87299999999999</v>
       </c>
       <c r="J17">
-        <v>355.80399999999997</v>
+        <v>49.249000000000002</v>
       </c>
       <c r="K17">
-        <v>110</v>
+        <v>16.795000000000002</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-8.3360000000000003</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>-10.526999999999999</v>
       </c>
       <c r="N17">
-        <v>909.85199999999998</v>
+        <v>293.83300000000003</v>
       </c>
       <c r="O17">
-        <v>1361.7639999999999</v>
+        <v>363.76600000000002</v>
       </c>
       <c r="P17">
-        <v>536.90300000000002</v>
+        <v>81.093999999999994</v>
       </c>
       <c r="Q17">
-        <v>11.353</v>
+        <v>2.68</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>621.63900000000001</v>
+        <v>140.41499999999999</v>
       </c>
       <c r="U17">
-        <v>115.831</v>
+        <v>52.371000000000002</v>
       </c>
       <c r="V17">
-        <v>58.863999999999997</v>
+        <v>1.2</v>
       </c>
       <c r="W17">
-        <v>-5.08</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-40.947000000000003</v>
+        <v>5.6040000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>5.08</v>
+        <v>-8.5999999999999993E-2</v>
       </c>
       <c r="AA17">
-        <v>39.527999999999999</v>
+        <v>-0.89700000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>28.629000000000001</v>
+        <v>-40.747999999999998</v>
       </c>
       <c r="D18">
-        <v>722.24</v>
+        <v>258.71199999999999</v>
       </c>
       <c r="E18">
-        <v>577.52</v>
+        <v>196.12</v>
       </c>
       <c r="F18">
-        <v>97.906000000000006</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="G18">
-        <v>963.13499999999999</v>
+        <v>315.39600000000002</v>
       </c>
       <c r="H18">
-        <v>1830.11</v>
+        <v>455.327</v>
       </c>
       <c r="I18">
-        <v>441.27499999999998</v>
+        <v>149.489</v>
       </c>
       <c r="J18">
-        <v>270.90300000000002</v>
+        <v>75.995000000000005</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.904999999999999</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,330 +2220,330 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>823.98099999999999</v>
+        <v>260.137</v>
       </c>
       <c r="O18">
-        <v>1174.1600000000001</v>
+        <v>352.37099999999998</v>
       </c>
       <c r="P18">
-        <v>444.94499999999999</v>
+        <v>92.376999999999995</v>
       </c>
       <c r="Q18">
-        <v>23.093</v>
+        <v>15.32</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>655.95</v>
+        <v>102.956</v>
       </c>
       <c r="U18">
-        <v>138.92400000000001</v>
+        <v>50.139000000000003</v>
       </c>
       <c r="V18">
-        <v>116.14100000000001</v>
+        <v>-13.057</v>
       </c>
       <c r="W18">
-        <v>-5.08</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>-106.426</v>
+        <v>12.34</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>28.143000000000001</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="AA18">
-        <v>28.629000000000001</v>
+        <v>-40.747999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>-16.978999999999999</v>
+        <v>-8.39</v>
       </c>
       <c r="D19">
-        <v>501.52</v>
+        <v>172.87200000000001</v>
       </c>
       <c r="E19">
-        <v>619.601</v>
+        <v>153.35400000000001</v>
       </c>
       <c r="F19">
-        <v>36.899000000000001</v>
+        <v>5.1020000000000003</v>
       </c>
       <c r="G19">
-        <v>971.81299999999999</v>
+        <v>254.38900000000001</v>
       </c>
       <c r="H19">
-        <v>1869.92</v>
+        <v>400.95699999999999</v>
       </c>
       <c r="I19">
-        <v>408.137</v>
+        <v>119.77800000000001</v>
       </c>
       <c r="J19">
-        <v>267.35599999999999</v>
+        <v>76.447000000000003</v>
       </c>
       <c r="K19">
-        <v>89.492999999999995</v>
+        <v>8.7319999999999993</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-19.965</v>
+        <v>-48.811</v>
       </c>
       <c r="N19">
-        <v>868.40899999999999</v>
+        <v>212.19300000000001</v>
       </c>
       <c r="O19">
-        <v>1215.5820000000001</v>
+        <v>303.17399999999998</v>
       </c>
       <c r="P19">
-        <v>524.99099999999999</v>
+        <v>97.447999999999993</v>
       </c>
       <c r="Q19">
-        <v>-44.295999999999999</v>
+        <v>-7.4530000000000003</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>654.33799999999997</v>
+        <v>97.783000000000001</v>
       </c>
       <c r="U19">
-        <v>94.628</v>
+        <v>43.707000000000001</v>
       </c>
       <c r="V19">
-        <v>-105.438</v>
+        <v>-10.653</v>
       </c>
       <c r="W19">
-        <v>-5.05</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>71.040000000000006</v>
+        <v>6.2</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>-0.63700000000000001</v>
+        <v>-4.3479999999999999</v>
       </c>
       <c r="AA19">
-        <v>-16.978999999999999</v>
+        <v>-8.39</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>12.369</v>
+        <v>1.67</v>
       </c>
       <c r="D20">
-        <v>667.31100000000004</v>
+        <v>282.97800000000001</v>
       </c>
       <c r="E20">
-        <v>665.00599999999997</v>
+        <v>227.56100000000001</v>
       </c>
       <c r="F20">
-        <v>57.918999999999997</v>
+        <v>17.928000000000001</v>
       </c>
       <c r="G20">
-        <v>1252.117</v>
+        <v>327.00400000000002</v>
       </c>
       <c r="H20">
-        <v>1892.9169999999999</v>
+        <v>474.697</v>
       </c>
       <c r="I20">
-        <v>425.23099999999999</v>
+        <v>164.786</v>
       </c>
       <c r="J20">
-        <v>262.09199999999998</v>
+        <v>98.876999999999995</v>
       </c>
       <c r="K20">
-        <v>86.555999999999997</v>
+        <v>11.898</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>-1.3420000000000001</v>
       </c>
       <c r="N20">
-        <v>862.274</v>
+        <v>260.84300000000002</v>
       </c>
       <c r="O20">
-        <v>1203.8440000000001</v>
+        <v>374.209</v>
       </c>
       <c r="P20">
-        <v>511.2</v>
+        <v>124.443</v>
       </c>
       <c r="Q20">
-        <v>11.871</v>
+        <v>-22.486999999999998</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>689.07299999999998</v>
+        <v>100.488</v>
       </c>
       <c r="U20">
-        <v>106.499</v>
+        <v>22.175999999999998</v>
       </c>
       <c r="V20">
-        <v>15.209</v>
+        <v>-34.49</v>
       </c>
       <c r="W20">
-        <v>-5.6749999999999998</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>-25.544</v>
+        <v>25.669</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>6.5810000000000004</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>12.369</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>25.584</v>
+        <v>2.09</v>
       </c>
       <c r="D21">
-        <v>874.94299999999998</v>
+        <v>340.79300000000001</v>
       </c>
       <c r="E21">
-        <v>818.10699999999997</v>
+        <v>241.52099999999999</v>
       </c>
       <c r="F21">
-        <v>108.07899999999999</v>
+        <v>20.134</v>
       </c>
       <c r="G21">
-        <v>1470.76</v>
+        <v>358.32100000000003</v>
       </c>
       <c r="H21">
-        <v>2106.712</v>
+        <v>509.14299999999997</v>
       </c>
       <c r="I21">
-        <v>500.19499999999999</v>
+        <v>184.011</v>
       </c>
       <c r="J21">
-        <v>262.75900000000001</v>
+        <v>97.222999999999999</v>
       </c>
       <c r="K21">
-        <v>129.465</v>
+        <v>14.682</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-1.74</v>
       </c>
       <c r="N21">
-        <v>1063.0329999999999</v>
+        <v>294.70100000000002</v>
       </c>
       <c r="O21">
-        <v>1409.9690000000001</v>
+        <v>406.36700000000002</v>
       </c>
       <c r="P21">
-        <v>550.43899999999996</v>
+        <v>125.85599999999999</v>
       </c>
       <c r="Q21">
-        <v>29.867999999999999</v>
+        <v>7.2629999999999999</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>696.74300000000005</v>
+        <v>102.776</v>
       </c>
       <c r="U21">
-        <v>136.36699999999999</v>
+        <v>29.387</v>
       </c>
       <c r="V21">
-        <v>17.076000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="W21">
-        <v>-5.6539999999999999</v>
+        <v>0</v>
       </c>
       <c r="X21">
-        <v>30.923999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>-2.0979999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>25.58</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>47.703000000000003</v>
+        <v>3.49</v>
       </c>
       <c r="D22">
-        <v>874.30799999999999</v>
+        <v>323.601</v>
       </c>
       <c r="E22">
-        <v>694.34799999999996</v>
+        <v>217.06299999999999</v>
       </c>
       <c r="F22">
-        <v>95.177999999999997</v>
+        <v>23.667000000000002</v>
       </c>
       <c r="G22">
-        <v>1242.1790000000001</v>
+        <v>342.41500000000002</v>
       </c>
       <c r="H22">
-        <v>1874.3620000000001</v>
+        <v>504.42200000000003</v>
       </c>
       <c r="I22">
-        <v>422.16899999999998</v>
+        <v>166.27099999999999</v>
       </c>
       <c r="J22">
-        <v>266.34899999999999</v>
+        <v>94.83</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>10.811999999999999</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,330 +2552,330 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>771.97299999999996</v>
+        <v>286.65899999999999</v>
       </c>
       <c r="O22">
-        <v>1156.31</v>
+        <v>398.09399999999999</v>
       </c>
       <c r="P22">
-        <v>322.38200000000001</v>
+        <v>119.54600000000001</v>
       </c>
       <c r="Q22">
-        <v>146.36500000000001</v>
+        <v>-0.46</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>718.05200000000002</v>
+        <v>106.328</v>
       </c>
       <c r="U22">
-        <v>282.73200000000003</v>
+        <v>27.001999999999999</v>
       </c>
       <c r="V22">
-        <v>131.25800000000001</v>
+        <v>9.58</v>
       </c>
       <c r="W22">
-        <v>-5.681</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>-239.59800000000001</v>
+        <v>-6.5750000000000002</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>9.8260000000000005</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>47.703000000000003</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>-16.788</v>
+        <v>-10.946999999999999</v>
       </c>
       <c r="D23">
-        <v>690.69899999999996</v>
+        <v>200.57499999999999</v>
       </c>
       <c r="E23">
-        <v>801.3</v>
+        <v>174.483</v>
       </c>
       <c r="F23">
-        <v>45.116</v>
+        <v>6.3769999999999998</v>
       </c>
       <c r="G23">
-        <v>1273.1880000000001</v>
+        <v>303.702</v>
       </c>
       <c r="H23">
-        <v>1901.355</v>
+        <v>468.72899999999998</v>
       </c>
       <c r="I23">
-        <v>470.81</v>
+        <v>132.97800000000001</v>
       </c>
       <c r="J23">
-        <v>262.58100000000002</v>
+        <v>76.004000000000005</v>
       </c>
       <c r="K23">
-        <v>20</v>
+        <v>8.3369999999999997</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="M23">
-        <v>-12.653</v>
+        <v>-22.52</v>
       </c>
       <c r="N23">
-        <v>821.38400000000001</v>
+        <v>244.886</v>
       </c>
       <c r="O23">
-        <v>1201.944</v>
+        <v>337.58100000000002</v>
       </c>
       <c r="P23">
-        <v>338.41199999999998</v>
+        <v>89.317999999999998</v>
       </c>
       <c r="Q23">
-        <v>-68.364000000000004</v>
+        <v>1.742</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>699.41099999999994</v>
+        <v>131.148</v>
       </c>
       <c r="U23">
-        <v>214.36799999999999</v>
+        <v>28.744</v>
       </c>
       <c r="V23">
-        <v>-68.628</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="W23">
-        <v>-5.6820000000000004</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>6.1509999999999998</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.28599999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>-16.788</v>
+        <v>-10.946999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>7.0869999999999997</v>
+        <v>-0.98799999999999999</v>
       </c>
       <c r="D24">
-        <v>839.31399999999996</v>
+        <v>258.73899999999998</v>
       </c>
       <c r="E24">
-        <v>854.01199999999994</v>
+        <v>223.12799999999999</v>
       </c>
       <c r="F24">
-        <v>76.450999999999993</v>
+        <v>17.59</v>
       </c>
       <c r="G24">
-        <v>1295.383</v>
+        <v>374.15600000000001</v>
       </c>
       <c r="H24">
-        <v>1911.4860000000001</v>
+        <v>608.84400000000005</v>
       </c>
       <c r="I24">
-        <v>466.52199999999999</v>
+        <v>153.29499999999999</v>
       </c>
       <c r="J24">
-        <v>257.08</v>
+        <v>126.60599999999999</v>
       </c>
       <c r="K24">
-        <v>60</v>
+        <v>8.7870000000000008</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>-1.3049999999999999</v>
       </c>
       <c r="N24">
-        <v>835.02700000000004</v>
+        <v>265.29500000000002</v>
       </c>
       <c r="O24">
-        <v>1210.2460000000001</v>
+        <v>477.37200000000001</v>
       </c>
       <c r="P24">
-        <v>373.92399999999998</v>
+        <v>140.239</v>
       </c>
       <c r="Q24">
-        <v>-26.843</v>
+        <v>20.597999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>701.24</v>
+        <v>131.47200000000001</v>
       </c>
       <c r="U24">
-        <v>187.52500000000001</v>
+        <v>49.341999999999999</v>
       </c>
       <c r="V24">
-        <v>-53.726999999999997</v>
+        <v>-27.03</v>
       </c>
       <c r="W24">
-        <v>-6.5919999999999996</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>23.042999999999999</v>
+        <v>54.636000000000003</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>7.2489999999999997</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>7.0860000000000003</v>
+        <v>-0.98799999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>27.366</v>
+        <v>12.827999999999999</v>
       </c>
       <c r="D25">
-        <v>838.06899999999996</v>
+        <v>316.03899999999999</v>
       </c>
       <c r="E25">
-        <v>878.928</v>
+        <v>183.69</v>
       </c>
       <c r="F25">
-        <v>96.03</v>
+        <v>32.915999999999997</v>
       </c>
       <c r="G25">
-        <v>1373.848</v>
+        <v>413.27800000000002</v>
       </c>
       <c r="H25">
-        <v>1979.183</v>
+        <v>648.75300000000004</v>
       </c>
       <c r="I25">
-        <v>503.20699999999999</v>
+        <v>160.221</v>
       </c>
       <c r="J25">
-        <v>255.21299999999999</v>
+        <v>122.29900000000001</v>
       </c>
       <c r="K25">
-        <v>40</v>
+        <v>12.355</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>-8.7780000000000005</v>
       </c>
       <c r="N25">
-        <v>879.65200000000004</v>
+        <v>294.86</v>
       </c>
       <c r="O25">
-        <v>1254.846</v>
+        <v>504.22699999999998</v>
       </c>
       <c r="P25">
-        <v>347.66300000000001</v>
+        <v>139.15299999999999</v>
       </c>
       <c r="Q25">
-        <v>14.753</v>
+        <v>-12.587</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>724.33699999999999</v>
+        <v>144.52600000000001</v>
       </c>
       <c r="U25">
-        <v>202.27799999999999</v>
+        <v>36.755000000000003</v>
       </c>
       <c r="V25">
-        <v>55.881999999999998</v>
+        <v>-13.224</v>
       </c>
       <c r="W25">
-        <v>-6.5990000000000002</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>-35.18</v>
+        <v>-0.188</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>1.794</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>27.366</v>
+        <v>12.827999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>29.091999999999999</v>
+        <v>10.609</v>
       </c>
       <c r="D26">
-        <v>845.05100000000004</v>
+        <v>337.95299999999997</v>
       </c>
       <c r="E26">
-        <v>870.47799999999995</v>
+        <v>299.00099999999998</v>
       </c>
       <c r="F26">
-        <v>101.771</v>
+        <v>39.679000000000002</v>
       </c>
       <c r="G26">
-        <v>1389.3</v>
+        <v>451.36700000000002</v>
       </c>
       <c r="H26">
-        <v>2005.4849999999999</v>
+        <v>716.28700000000003</v>
       </c>
       <c r="I26">
-        <v>494.83300000000003</v>
+        <v>188.57499999999999</v>
       </c>
       <c r="J26">
-        <v>251.18100000000001</v>
+        <v>141.108</v>
       </c>
       <c r="K26">
-        <v>7.476</v>
+        <v>15.036</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,330 +2884,330 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>864.76400000000001</v>
+        <v>330.16699999999997</v>
       </c>
       <c r="O26">
-        <v>1251.886</v>
+        <v>562.68399999999997</v>
       </c>
       <c r="P26">
-        <v>310.22500000000002</v>
+        <v>160.941</v>
       </c>
       <c r="Q26">
-        <v>29.58</v>
+        <v>13.353999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>12000</v>
+        <v>1979</v>
       </c>
       <c r="T26">
-        <v>753.59900000000005</v>
+        <v>153.60300000000001</v>
       </c>
       <c r="U26">
-        <v>231.858</v>
+        <v>50.109000000000002</v>
       </c>
       <c r="V26">
-        <v>93.358999999999995</v>
+        <v>36.924999999999997</v>
       </c>
       <c r="W26">
-        <v>-6.6950000000000003</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>-51.017000000000003</v>
+        <v>12.465999999999999</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>0.24199999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>29.091999999999999</v>
+        <v>10.609</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>-18.346</v>
+        <v>-2.9740000000000002</v>
       </c>
       <c r="D27">
-        <v>674.86599999999999</v>
+        <v>241.785</v>
       </c>
       <c r="E27">
-        <v>885.87800000000004</v>
+        <v>265.38</v>
       </c>
       <c r="F27">
-        <v>51.045000000000002</v>
+        <v>18.908999999999999</v>
       </c>
       <c r="G27">
-        <v>1758.22</v>
+        <v>429.721</v>
       </c>
       <c r="H27">
-        <v>2533</v>
+        <v>723.423</v>
       </c>
       <c r="I27">
-        <v>500.43200000000002</v>
+        <v>161.21899999999999</v>
       </c>
       <c r="J27">
-        <v>625.58799999999997</v>
+        <v>166.81700000000001</v>
       </c>
       <c r="K27">
-        <v>35</v>
+        <v>8.1460000000000008</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-13.398</v>
+        <v>-7.2169999999999996</v>
       </c>
       <c r="N27">
-        <v>918.726</v>
+        <v>314.125</v>
       </c>
       <c r="O27">
-        <v>1797.5920000000001</v>
+        <v>571.60500000000002</v>
       </c>
       <c r="P27">
-        <v>709.17600000000004</v>
+        <v>186.636</v>
       </c>
       <c r="Q27">
-        <v>72.537999999999997</v>
+        <v>-2.3849999999999998</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>735.40800000000002</v>
+        <v>151.81800000000001</v>
       </c>
       <c r="U27">
-        <v>304.39600000000002</v>
+        <v>47.723999999999997</v>
       </c>
       <c r="V27">
-        <v>78.566000000000003</v>
+        <v>15.343999999999999</v>
       </c>
       <c r="W27">
-        <v>-7.3070000000000004</v>
+        <v>0</v>
       </c>
       <c r="X27">
-        <v>390.26</v>
+        <v>6.6379999999999999</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0.13300000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-18.346</v>
+        <v>-2.9740000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>0.80700000000000005</v>
+        <v>9.7309999999999999</v>
       </c>
       <c r="D28">
-        <v>686.16399999999999</v>
+        <v>338.27100000000002</v>
       </c>
       <c r="E28">
-        <v>998.53399999999999</v>
+        <v>327.44</v>
       </c>
       <c r="F28">
-        <v>71.570999999999998</v>
+        <v>32.305</v>
       </c>
       <c r="G28">
-        <v>1836.058</v>
+        <v>484.87700000000001</v>
       </c>
       <c r="H28">
-        <v>2607.1759999999999</v>
+        <v>773.38599999999997</v>
       </c>
       <c r="I28">
-        <v>532.87699999999995</v>
+        <v>189.43</v>
       </c>
       <c r="J28">
-        <v>613.54200000000003</v>
+        <v>179.899</v>
       </c>
       <c r="K28">
-        <v>130</v>
+        <v>14.887</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>-17.291</v>
       </c>
       <c r="N28">
-        <v>1020.705</v>
+        <v>350.029</v>
       </c>
       <c r="O28">
-        <v>1875.3209999999999</v>
+        <v>615.45100000000002</v>
       </c>
       <c r="P28">
-        <v>789.58600000000001</v>
+        <v>205.19300000000001</v>
       </c>
       <c r="Q28">
-        <v>-26.484000000000002</v>
+        <v>-9.0709999999999997</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>731.85500000000002</v>
+        <v>157.935</v>
       </c>
       <c r="U28">
-        <v>277.91199999999998</v>
+        <v>38.652999999999999</v>
       </c>
       <c r="V28">
-        <v>-96.001000000000005</v>
+        <v>-13.955</v>
       </c>
       <c r="W28">
-        <v>-6.6550000000000002</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>73.926000000000002</v>
+        <v>22.456</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0.39400000000000002</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0.80700000000000005</v>
+        <v>9.7309999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>24.635000000000002</v>
+        <v>19.035</v>
       </c>
       <c r="D29">
-        <v>759.68399999999997</v>
+        <v>430.37099999999998</v>
       </c>
       <c r="E29">
-        <v>1084.9349999999999</v>
+        <v>343.505</v>
       </c>
       <c r="F29">
-        <v>99.287999999999997</v>
+        <v>42.713999999999999</v>
       </c>
       <c r="G29">
-        <v>1905.5909999999999</v>
+        <v>545.08500000000004</v>
       </c>
       <c r="H29">
-        <v>2704.9670000000001</v>
+        <v>820.32500000000005</v>
       </c>
       <c r="I29">
-        <v>619.28099999999995</v>
+        <v>231.49799999999999</v>
       </c>
       <c r="J29">
-        <v>606.96600000000001</v>
+        <v>176.08199999999999</v>
       </c>
       <c r="K29">
-        <v>145</v>
+        <v>7.0730000000000004</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-7.3789999999999996</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>-2.9889999999999999</v>
       </c>
       <c r="N29">
-        <v>1101.365</v>
+        <v>384.62700000000001</v>
       </c>
       <c r="O29">
-        <v>1951.857</v>
+        <v>642.49199999999996</v>
       </c>
       <c r="P29">
-        <v>798.73800000000006</v>
+        <v>193.65799999999999</v>
       </c>
       <c r="Q29">
-        <v>20.164999999999999</v>
+        <v>41.862000000000002</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>753.11</v>
+        <v>177.833</v>
       </c>
       <c r="U29">
-        <v>298.077</v>
+        <v>80.515000000000001</v>
       </c>
       <c r="V29">
-        <v>36.637</v>
+        <v>46.185000000000002</v>
       </c>
       <c r="W29">
-        <v>-7.343</v>
+        <v>0</v>
       </c>
       <c r="X29">
-        <v>-4.0869999999999997</v>
+        <v>-6.58</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-1.6930000000000001</v>
+        <v>10.048</v>
       </c>
       <c r="AA29">
-        <v>24.635000000000002</v>
+        <v>19.035</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>21.08</v>
+        <v>22.510999999999999</v>
       </c>
       <c r="D30">
-        <v>685.01400000000001</v>
+        <v>482.32</v>
       </c>
       <c r="E30">
-        <v>888.01300000000003</v>
+        <v>340.375</v>
       </c>
       <c r="F30">
-        <v>97.119</v>
+        <v>48.508000000000003</v>
       </c>
       <c r="G30">
-        <v>1681.095</v>
+        <v>603.24900000000002</v>
       </c>
       <c r="H30">
-        <v>2485.19</v>
+        <v>910.65200000000004</v>
       </c>
       <c r="I30">
-        <v>534.60699999999997</v>
+        <v>264.334</v>
       </c>
       <c r="J30">
-        <v>370.125</v>
+        <v>162.82400000000001</v>
       </c>
       <c r="K30">
-        <v>17.940000000000001</v>
+        <v>6.9859999999999998</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,330 +3216,330 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1074.5119999999999</v>
+        <v>439.98399999999998</v>
       </c>
       <c r="O30">
-        <v>1729.2149999999999</v>
+        <v>684.31</v>
       </c>
       <c r="P30">
-        <v>674.97699999999998</v>
+        <v>187.34299999999999</v>
       </c>
       <c r="Q30">
-        <v>6.8049999999999997</v>
+        <v>54.091000000000001</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>5850</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>755.97500000000002</v>
+        <v>226.34200000000001</v>
       </c>
       <c r="U30">
-        <v>304.88200000000001</v>
+        <v>134.60599999999999</v>
       </c>
       <c r="V30">
-        <v>178.215</v>
+        <v>49.908000000000001</v>
       </c>
       <c r="W30">
-        <v>-7.3620000000000001</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>-142.334</v>
+        <v>21.041</v>
       </c>
       <c r="Y30">
-        <v>73.974000000000004</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>7.3849999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>21.08</v>
+        <v>22.510999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>-19.245000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
       <c r="D31">
-        <v>543.32500000000005</v>
+        <v>301.95999999999998</v>
       </c>
       <c r="E31">
-        <v>913.15700000000004</v>
+        <v>299.06400000000002</v>
       </c>
       <c r="F31">
-        <v>46.97</v>
+        <v>18.523</v>
       </c>
       <c r="G31">
-        <v>1647.107</v>
+        <v>562.87800000000004</v>
       </c>
       <c r="H31">
-        <v>2465.7379999999998</v>
+        <v>886.64599999999996</v>
       </c>
       <c r="I31">
-        <v>512.66600000000005</v>
+        <v>217.75399999999999</v>
       </c>
       <c r="J31">
-        <v>445.89699999999999</v>
+        <v>132.64500000000001</v>
       </c>
       <c r="K31">
-        <v>29.45</v>
+        <v>7.1689999999999996</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-11.677</v>
+        <v>-6.2519999999999998</v>
       </c>
       <c r="N31">
-        <v>1047.06</v>
+        <v>415.33300000000003</v>
       </c>
       <c r="O31">
-        <v>1725.9760000000001</v>
+        <v>631.22799999999995</v>
       </c>
       <c r="P31">
-        <v>683.29</v>
+        <v>157.61099999999999</v>
       </c>
       <c r="Q31">
-        <v>-42.307000000000002</v>
+        <v>2.048</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>739.76199999999994</v>
+        <v>255.41800000000001</v>
       </c>
       <c r="U31">
-        <v>262.57499999999999</v>
+        <v>136.654</v>
       </c>
       <c r="V31">
-        <v>-28.838999999999999</v>
+        <v>19.39</v>
       </c>
       <c r="W31">
-        <v>-7.4119999999999999</v>
+        <v>-2.9769999999999999</v>
       </c>
       <c r="X31">
-        <v>-6.1479999999999997</v>
+        <v>-5.0410000000000004</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-2.5</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>-19.245000000000001</v>
+        <v>0.27600000000000002</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>8.4039999999999999</v>
+        <v>15.595000000000001</v>
       </c>
       <c r="D32">
-        <v>754.77300000000002</v>
+        <v>437.65100000000001</v>
       </c>
       <c r="E32">
-        <v>937.41499999999996</v>
+        <v>333.923</v>
       </c>
       <c r="F32">
-        <v>79.495999999999995</v>
+        <v>51.738</v>
       </c>
       <c r="G32">
-        <v>1854.472</v>
+        <v>643.76</v>
       </c>
       <c r="H32">
-        <v>2707.16</v>
+        <v>964.93</v>
       </c>
       <c r="I32">
-        <v>602.47</v>
+        <v>221.36</v>
       </c>
       <c r="J32">
-        <v>452.21300000000002</v>
+        <v>104.292</v>
       </c>
       <c r="K32">
-        <v>14.65</v>
+        <v>7.1219999999999999</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>-15.68</v>
       </c>
       <c r="N32">
-        <v>1272.6199999999999</v>
+        <v>415.81299999999999</v>
       </c>
       <c r="O32">
-        <v>1963.2170000000001</v>
+        <v>630.28399999999999</v>
       </c>
       <c r="P32">
-        <v>675.17200000000003</v>
+        <v>154.40299999999999</v>
       </c>
       <c r="Q32">
-        <v>170.387</v>
+        <v>41.197000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>743.94299999999998</v>
+        <v>334.64600000000002</v>
       </c>
       <c r="U32">
-        <v>432.96199999999999</v>
+        <v>177.851</v>
       </c>
       <c r="V32">
-        <v>235.381</v>
+        <v>-6.3719999999999999</v>
       </c>
       <c r="W32">
-        <v>-7.4619999999999997</v>
+        <v>-2.3359999999999999</v>
       </c>
       <c r="X32">
-        <v>-33.534999999999997</v>
+        <v>58.173999999999999</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>27.177</v>
       </c>
       <c r="Z32">
-        <v>-8.9169999999999998</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>8.4039999999999999</v>
+        <v>15.595000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>41.99</v>
+        <v>23.08</v>
       </c>
       <c r="D33">
-        <v>1019.68</v>
+        <v>534.66499999999996</v>
       </c>
       <c r="E33">
-        <v>1146.732</v>
+        <v>403.16</v>
       </c>
       <c r="F33">
-        <v>125.05500000000001</v>
+        <v>68.668999999999997</v>
       </c>
       <c r="G33">
-        <v>2318.61</v>
+        <v>769.56100000000004</v>
       </c>
       <c r="H33">
-        <v>3203.4650000000001</v>
+        <v>1098.6510000000001</v>
       </c>
       <c r="I33">
-        <v>793.82899999999995</v>
+        <v>285.60199999999998</v>
       </c>
       <c r="J33">
-        <v>584.41999999999996</v>
+        <v>117.145</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>7.4989999999999997</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>-3.5710000000000002</v>
       </c>
       <c r="N33">
-        <v>1586.97</v>
+        <v>510.56599999999997</v>
       </c>
       <c r="O33">
-        <v>2410.5329999999999</v>
+        <v>739.87599999999998</v>
       </c>
       <c r="P33">
-        <v>792.86199999999997</v>
+        <v>165.976</v>
       </c>
       <c r="Q33">
-        <v>262.94099999999997</v>
+        <v>43.418999999999997</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>792.93200000000002</v>
+        <v>358.77499999999998</v>
       </c>
       <c r="U33">
-        <v>695.90300000000002</v>
+        <v>221.27</v>
       </c>
       <c r="V33">
-        <v>160.452</v>
+        <v>51.915999999999997</v>
       </c>
       <c r="W33">
-        <v>-7.4690000000000003</v>
+        <v>-5.0869999999999997</v>
       </c>
       <c r="X33">
-        <v>125.462</v>
+        <v>1.9790000000000001</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>25.731999999999999</v>
       </c>
       <c r="Z33">
-        <v>6.5000000000000002E-2</v>
+        <v>0</v>
       </c>
       <c r="AA33">
-        <v>41.99</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>27.864999999999998</v>
+        <v>20.390999999999998</v>
       </c>
       <c r="D34">
-        <v>948.51300000000003</v>
+        <v>602.71</v>
       </c>
       <c r="E34">
-        <v>1016.487</v>
+        <v>378.601</v>
       </c>
       <c r="F34">
-        <v>105.599</v>
+        <v>72.132000000000005</v>
       </c>
       <c r="G34">
-        <v>2146.8130000000001</v>
+        <v>823.48900000000003</v>
       </c>
       <c r="H34">
-        <v>2932.692</v>
+        <v>1188.864</v>
       </c>
       <c r="I34">
-        <v>631.23099999999999</v>
+        <v>317.40699999999998</v>
       </c>
       <c r="J34">
-        <v>543.52099999999996</v>
+        <v>163.82499999999999</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2.6309999999999998</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,327 +3548,327 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1263.9100000000001</v>
+        <v>543.83900000000006</v>
       </c>
       <c r="O34">
-        <v>2107.63</v>
+        <v>804.15</v>
       </c>
       <c r="P34">
-        <v>645.73299999999995</v>
+        <v>182.84299999999999</v>
       </c>
       <c r="Q34">
-        <v>-64.927000000000007</v>
+        <v>71.602999999999994</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>6101</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>825.06200000000001</v>
+        <v>384.714</v>
       </c>
       <c r="U34">
-        <v>630.976</v>
+        <v>292.87299999999999</v>
       </c>
       <c r="V34">
-        <v>1.6850000000000001</v>
+        <v>78.978999999999999</v>
       </c>
       <c r="W34">
-        <v>-7.4880000000000004</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>-170.90799999999999</v>
+        <v>4.8559999999999999</v>
       </c>
       <c r="Y34">
-        <v>69.706999999999994</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>1.323</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>27.864999999999998</v>
+        <v>20.390999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>-9.8230000000000004</v>
+        <v>-0.626</v>
       </c>
       <c r="D35">
-        <v>650.33399999999995</v>
+        <v>340.88499999999999</v>
       </c>
       <c r="E35">
-        <v>935.89200000000005</v>
+        <v>356.589</v>
       </c>
       <c r="F35">
-        <v>46.796999999999997</v>
+        <v>32.628</v>
       </c>
       <c r="G35">
-        <v>2001.115</v>
+        <v>872.5</v>
       </c>
       <c r="H35">
-        <v>2851.4969999999998</v>
+        <v>1314.3209999999999</v>
       </c>
       <c r="I35">
-        <v>559.32299999999998</v>
+        <v>303.01400000000001</v>
       </c>
       <c r="J35">
-        <v>557.96600000000001</v>
+        <v>246.37700000000001</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-13.122999999999999</v>
+        <v>-3.6539999999999999</v>
       </c>
       <c r="N35">
-        <v>1163.979</v>
+        <v>560.51900000000001</v>
       </c>
       <c r="O35">
-        <v>2046.8219999999999</v>
+        <v>929.78499999999997</v>
       </c>
       <c r="P35">
-        <v>699.30600000000004</v>
+        <v>323.45</v>
       </c>
       <c r="Q35">
-        <v>-37.784999999999997</v>
+        <v>80.674000000000007</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>804.67499999999995</v>
+        <v>384.536</v>
       </c>
       <c r="U35">
-        <v>593.19100000000003</v>
+        <v>373.54700000000003</v>
       </c>
       <c r="V35">
-        <v>-12.04</v>
+        <v>6.8769999999999998</v>
       </c>
       <c r="W35">
-        <v>-7.56</v>
+        <v>-2.5449999999999999</v>
       </c>
       <c r="X35">
-        <v>-15.023999999999999</v>
+        <v>126.913</v>
       </c>
       <c r="Y35">
-        <v>98.423000000000002</v>
+        <v>23.478999999999999</v>
       </c>
       <c r="Z35">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-9.8230000000000004</v>
+        <v>-0.626</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>20.361000000000001</v>
+        <v>9.9290000000000003</v>
       </c>
       <c r="D36">
-        <v>867.31700000000001</v>
+        <v>613.23699999999997</v>
       </c>
       <c r="E36">
-        <v>1054.6690000000001</v>
+        <v>524.67700000000002</v>
       </c>
       <c r="F36">
-        <v>96.281000000000006</v>
+        <v>63.420999999999999</v>
       </c>
       <c r="G36">
-        <v>2032.0260000000001</v>
+        <v>915.49199999999996</v>
       </c>
       <c r="H36">
-        <v>2931.4490000000001</v>
+        <v>1451.97</v>
       </c>
       <c r="I36">
-        <v>625.79</v>
+        <v>376.95600000000002</v>
       </c>
       <c r="J36">
-        <v>556.57600000000002</v>
+        <v>251.86699999999999</v>
       </c>
       <c r="K36">
         <v>0</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>-30</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>-12.002000000000001</v>
       </c>
       <c r="N36">
-        <v>1230.8209999999999</v>
+        <v>630.91200000000003</v>
       </c>
       <c r="O36">
-        <v>2117.6190000000001</v>
+        <v>1022.8869999999999</v>
       </c>
       <c r="P36">
-        <v>712.75599999999997</v>
+        <v>341.21100000000001</v>
       </c>
       <c r="Q36">
-        <v>-71.191000000000003</v>
+        <v>-185.678</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>813.83</v>
+        <v>429.08300000000003</v>
       </c>
       <c r="U36">
-        <v>522</v>
+        <v>187.869</v>
       </c>
       <c r="V36">
-        <v>-43.981000000000002</v>
+        <v>-58.595999999999997</v>
       </c>
       <c r="W36">
-        <v>-8.7959999999999994</v>
+        <v>-2.5449999999999999</v>
       </c>
       <c r="X36">
-        <v>-12.759</v>
+        <v>16.088999999999999</v>
       </c>
       <c r="Y36">
-        <v>103.747</v>
+        <v>47.033000000000001</v>
       </c>
       <c r="Z36">
-        <v>1E-3</v>
+        <v>-46.395000000000003</v>
       </c>
       <c r="AA36">
-        <v>20.361000000000001</v>
+        <v>9.9290000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>42.116</v>
+        <v>19.638000000000002</v>
       </c>
       <c r="D37">
-        <v>1025.4349999999999</v>
+        <v>707.09400000000005</v>
       </c>
       <c r="E37">
-        <v>1249.0730000000001</v>
+        <v>597.14200000000005</v>
       </c>
       <c r="F37">
-        <v>120.643</v>
+        <v>76.173000000000002</v>
       </c>
       <c r="G37">
-        <v>2212.578</v>
+        <v>1144.7719999999999</v>
       </c>
       <c r="H37">
-        <v>3162.8649999999998</v>
+        <v>1678.998</v>
       </c>
       <c r="I37">
-        <v>746.41800000000001</v>
+        <v>412.56</v>
       </c>
       <c r="J37">
-        <v>563.48699999999997</v>
+        <v>250.04300000000001</v>
       </c>
       <c r="K37">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>-4.74</v>
       </c>
       <c r="N37">
-        <v>1400.16</v>
+        <v>847.83600000000001</v>
       </c>
       <c r="O37">
-        <v>2310.297</v>
+        <v>1228.6569999999999</v>
       </c>
       <c r="P37">
-        <v>760.70799999999997</v>
+        <v>511.32499999999999</v>
       </c>
       <c r="Q37">
-        <v>-35.622999999999998</v>
+        <v>109.754</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>852.56799999999998</v>
+        <v>450.34100000000001</v>
       </c>
       <c r="U37">
-        <v>486.37700000000001</v>
+        <v>297.62299999999999</v>
       </c>
       <c r="V37">
-        <v>-22.43</v>
+        <v>-11.435</v>
       </c>
       <c r="W37">
-        <v>-8.81</v>
+        <v>-2.8340000000000001</v>
       </c>
       <c r="X37">
-        <v>0.60699999999999998</v>
+        <v>178.82300000000001</v>
       </c>
       <c r="Y37">
-        <v>111.527</v>
+        <v>41.374000000000002</v>
       </c>
       <c r="Z37">
-        <v>0.5</v>
+        <v>13.335000000000001</v>
       </c>
       <c r="AA37">
-        <v>42.116</v>
+        <v>19.638000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>20.199000000000002</v>
+        <v>15.445</v>
       </c>
       <c r="D38">
-        <v>917.33199999999999</v>
+        <v>599.77</v>
       </c>
       <c r="E38">
-        <v>997.71799999999996</v>
+        <v>544.48099999999999</v>
       </c>
       <c r="F38">
-        <v>103.883</v>
+        <v>71.457999999999998</v>
       </c>
       <c r="G38">
-        <v>2129.404</v>
+        <v>1128.6110000000001</v>
       </c>
       <c r="H38">
-        <v>3114.6379999999999</v>
+        <v>1689.338</v>
       </c>
       <c r="I38">
-        <v>674.101</v>
+        <v>387.596</v>
       </c>
       <c r="J38">
-        <v>530.245</v>
+        <v>291.65100000000001</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1357.8430000000001</v>
+        <v>843.82600000000002</v>
       </c>
       <c r="O38">
-        <v>2256.6419999999998</v>
+        <v>1227.0170000000001</v>
       </c>
       <c r="P38">
-        <v>735.99800000000005</v>
+        <v>525.57600000000002</v>
       </c>
       <c r="Q38">
-        <v>195.887</v>
+        <v>43.27</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>4838</v>
+        <v>4483</v>
       </c>
       <c r="T38">
-        <v>857.99599999999998</v>
+        <v>462.32100000000003</v>
       </c>
       <c r="U38">
-        <v>682.26400000000001</v>
+        <v>340.89299999999997</v>
       </c>
       <c r="V38">
-        <v>274.39999999999998</v>
+        <v>57.061</v>
       </c>
       <c r="W38">
-        <v>-8.81</v>
+        <v>-2.835</v>
       </c>
       <c r="X38">
-        <v>-48.37</v>
+        <v>13.782</v>
       </c>
       <c r="Y38">
-        <v>145.68199999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>2.6389999999999998</v>
+        <v>13.551</v>
       </c>
       <c r="AA38">
-        <v>20.199000000000002</v>
+        <v>15.445</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>-11.414</v>
+        <v>-5.3120000000000003</v>
       </c>
       <c r="D39">
-        <v>747.51499999999999</v>
+        <v>426.31400000000002</v>
       </c>
       <c r="E39">
-        <v>990.73800000000006</v>
+        <v>541.01199999999994</v>
       </c>
       <c r="F39">
-        <v>61.216000000000001</v>
+        <v>20.427</v>
       </c>
       <c r="G39">
-        <v>2068.1689999999999</v>
+        <v>1055.154</v>
       </c>
       <c r="H39">
-        <v>3145.4360000000001</v>
+        <v>1620.088</v>
       </c>
       <c r="I39">
-        <v>666.72199999999998</v>
+        <v>327.67</v>
       </c>
       <c r="J39">
-        <v>595.51400000000001</v>
+        <v>249.65799999999999</v>
       </c>
       <c r="K39">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-18.265999999999998</v>
+        <v>-8.4420000000000002</v>
       </c>
       <c r="N39">
-        <v>1372.28</v>
+        <v>792.62699999999995</v>
       </c>
       <c r="O39">
-        <v>2307.306</v>
+        <v>1175.9770000000001</v>
       </c>
       <c r="P39">
-        <v>796.79499999999996</v>
+        <v>540.14800000000002</v>
       </c>
       <c r="Q39">
-        <v>-85.692999999999998</v>
+        <v>-56.524000000000001</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>838.13</v>
+        <v>444.11099999999999</v>
       </c>
       <c r="U39">
-        <v>596.57100000000003</v>
+        <v>284.36900000000003</v>
       </c>
       <c r="V39">
-        <v>-16.818999999999999</v>
+        <v>-41.628999999999998</v>
       </c>
       <c r="W39">
-        <v>-8.8040000000000003</v>
+        <v>-2.8380000000000001</v>
       </c>
       <c r="X39">
-        <v>-11.946999999999999</v>
+        <v>3.3559999999999999</v>
       </c>
       <c r="Y39">
-        <v>110.32299999999999</v>
+        <v>43.731000000000002</v>
       </c>
       <c r="Z39">
-        <v>-0.189</v>
+        <v>-0.16400000000000001</v>
       </c>
       <c r="AA39">
-        <v>-11.414</v>
+        <v>-5.3120000000000003</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-6.1630000000000003</v>
+        <v>7.1559999999999997</v>
       </c>
       <c r="D40">
-        <v>779.44799999999998</v>
+        <v>679.69799999999998</v>
       </c>
       <c r="E40">
-        <v>1089.431</v>
+        <v>663.39400000000001</v>
       </c>
       <c r="F40">
-        <v>53.834000000000003</v>
+        <v>51.554000000000002</v>
       </c>
       <c r="G40">
-        <v>2102.364</v>
+        <v>1094.1569999999999</v>
       </c>
       <c r="H40">
-        <v>3177.4059999999999</v>
+        <v>1739.1110000000001</v>
       </c>
       <c r="I40">
-        <v>720.42</v>
+        <v>376.298</v>
       </c>
       <c r="J40">
-        <v>581.90200000000004</v>
+        <v>193.52099999999999</v>
       </c>
       <c r="K40">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1448.624</v>
+        <v>954.33199999999999</v>
       </c>
       <c r="O40">
-        <v>2373.0279999999998</v>
+        <v>1283.54</v>
       </c>
       <c r="P40">
-        <v>788.92899999999997</v>
+        <v>559.48599999999999</v>
       </c>
       <c r="Q40">
-        <v>-74.968000000000004</v>
+        <v>-102.75700000000001</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>804.37800000000004</v>
+        <v>455.57100000000003</v>
       </c>
       <c r="U40">
-        <v>521.60299999999995</v>
+        <v>181.61199999999999</v>
       </c>
       <c r="V40">
-        <v>-46.31</v>
+        <v>-50.469000000000001</v>
       </c>
       <c r="W40">
-        <v>-9.5779999999999994</v>
+        <v>-2.8410000000000002</v>
       </c>
       <c r="X40">
-        <v>-18.867999999999999</v>
+        <v>4.5759999999999996</v>
       </c>
       <c r="Y40">
-        <v>112.426</v>
+        <v>42.49</v>
       </c>
       <c r="Z40">
-        <v>6.6000000000000003E-2</v>
+        <v>-47.232999999999997</v>
       </c>
       <c r="AA40">
-        <v>-6.1630000000000003</v>
+        <v>7.1559999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>73.623999999999995</v>
+        <v>24.928000000000001</v>
       </c>
       <c r="D41">
-        <v>1039.4559999999999</v>
+        <v>802.971</v>
       </c>
       <c r="E41">
-        <v>1211.665</v>
+        <v>767.95299999999997</v>
       </c>
       <c r="F41">
-        <v>162.22900000000001</v>
+        <v>66.554000000000002</v>
       </c>
       <c r="G41">
-        <v>2320.4630000000002</v>
+        <v>1221.2860000000001</v>
       </c>
       <c r="H41">
-        <v>3390.1329999999998</v>
+        <v>2002.605</v>
       </c>
       <c r="I41">
-        <v>868.03099999999995</v>
+        <v>438.62400000000002</v>
       </c>
       <c r="J41">
-        <v>576.18799999999999</v>
+        <v>198.92599999999999</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>24.408000000000001</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1607.6479999999999</v>
+        <v>1192.722</v>
       </c>
       <c r="O41">
-        <v>2524.576</v>
+        <v>1525.4269999999999</v>
       </c>
       <c r="P41">
-        <v>750.94500000000005</v>
+        <v>707.47299999999996</v>
       </c>
       <c r="Q41">
-        <v>55.537999999999997</v>
+        <v>-77.349999999999994</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>865.55700000000002</v>
+        <v>477.178</v>
       </c>
       <c r="U41">
-        <v>577.14099999999996</v>
+        <v>104.262</v>
       </c>
       <c r="V41">
-        <v>122.018</v>
+        <v>-20.532</v>
       </c>
       <c r="W41">
-        <v>-9.5809999999999995</v>
+        <v>-2.84</v>
       </c>
       <c r="X41">
-        <v>-51.396000000000001</v>
+        <v>21.97</v>
       </c>
       <c r="Y41">
-        <v>113.764</v>
+        <v>41.875</v>
       </c>
       <c r="Z41">
-        <v>0.84099999999999997</v>
+        <v>1.8029999999999999</v>
       </c>
       <c r="AA41">
-        <v>73.623999999999995</v>
+        <v>24.928000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>15.076000000000001</v>
+      </c>
+      <c r="D42">
+        <v>840.79</v>
+      </c>
+      <c r="E42">
+        <v>758.73400000000004</v>
+      </c>
+      <c r="F42">
+        <v>23.603999999999999</v>
+      </c>
+      <c r="G42">
+        <v>1319.07</v>
+      </c>
+      <c r="H42">
+        <v>2121.4050000000002</v>
+      </c>
+      <c r="I42">
+        <v>489.411</v>
+      </c>
+      <c r="J42">
+        <v>406.51900000000001</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1075.038</v>
+      </c>
+      <c r="O42">
+        <v>1661.807</v>
+      </c>
+      <c r="P42">
+        <v>745.98699999999997</v>
+      </c>
+      <c r="Q42">
+        <v>146.6</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>8146</v>
+      </c>
+      <c r="T42">
+        <v>459.59800000000001</v>
+      </c>
+      <c r="U42">
+        <v>250.86199999999999</v>
+      </c>
+      <c r="V42">
+        <v>14.384</v>
+      </c>
+      <c r="W42">
+        <v>-2.8450000000000002</v>
+      </c>
+      <c r="X42">
+        <v>131.07900000000001</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>138.43899999999999</v>
+      </c>
+      <c r="AA42">
+        <v>15.076000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>-21.483000000000001</v>
+      </c>
+      <c r="D43">
+        <v>512.01499999999999</v>
+      </c>
+      <c r="E43">
+        <v>572.93700000000001</v>
+      </c>
+      <c r="F43">
+        <v>16.248000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1014.4640000000001</v>
+      </c>
+      <c r="H43">
+        <v>1831.49</v>
+      </c>
+      <c r="I43">
+        <v>348.25</v>
+      </c>
+      <c r="J43">
+        <v>456.11799999999999</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-131.26900000000001</v>
+      </c>
+      <c r="N43">
+        <v>717.71500000000003</v>
+      </c>
+      <c r="O43">
+        <v>1398.979</v>
+      </c>
+      <c r="P43">
+        <v>617.26900000000001</v>
+      </c>
+      <c r="Q43">
+        <v>-101.208</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>432.51100000000002</v>
+      </c>
+      <c r="U43">
+        <v>149.654</v>
+      </c>
+      <c r="V43">
+        <v>31.503</v>
+      </c>
+      <c r="W43">
+        <v>-2.8450000000000002</v>
+      </c>
+      <c r="X43">
+        <v>-133.07499999999999</v>
+      </c>
+      <c r="Y43">
+        <v>45.658999999999999</v>
+      </c>
+      <c r="Z43">
+        <v>-5.7000000000000002E-2</v>
+      </c>
+      <c r="AA43">
+        <v>-21.483000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D44">
+        <v>758.44100000000003</v>
+      </c>
+      <c r="E44">
+        <v>575.029</v>
+      </c>
+      <c r="F44">
+        <v>48.845999999999997</v>
+      </c>
+      <c r="G44">
+        <v>990.29</v>
+      </c>
+      <c r="H44">
+        <v>1863.4739999999999</v>
+      </c>
+      <c r="I44">
+        <v>391.58499999999998</v>
+      </c>
+      <c r="J44">
+        <v>416.02100000000002</v>
+      </c>
+      <c r="K44">
+        <v>27.509</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>791.81600000000003</v>
+      </c>
+      <c r="O44">
+        <v>1441.028</v>
+      </c>
+      <c r="P44">
+        <v>592.48599999999999</v>
+      </c>
+      <c r="Q44">
+        <v>-57.494</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>422.44600000000003</v>
+      </c>
+      <c r="U44">
+        <v>92.16</v>
+      </c>
+      <c r="V44">
+        <v>40.930999999999997</v>
+      </c>
+      <c r="W44">
+        <v>-2.8620000000000001</v>
+      </c>
+      <c r="X44">
+        <v>-60.079000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>53.247999999999998</v>
+      </c>
+      <c r="Z44">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="AA44">
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>41.658999999999999</v>
+      </c>
+      <c r="D45">
+        <v>835.37099999999998</v>
+      </c>
+      <c r="E45">
+        <v>614.07000000000005</v>
+      </c>
+      <c r="F45">
+        <v>96.295000000000002</v>
+      </c>
+      <c r="G45">
+        <v>1057.0519999999999</v>
+      </c>
+      <c r="H45">
+        <v>1959.2829999999999</v>
+      </c>
+      <c r="I45">
+        <v>435.16699999999997</v>
+      </c>
+      <c r="J45">
+        <v>445.34100000000001</v>
+      </c>
+      <c r="K45">
+        <v>22</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>818.42499999999995</v>
+      </c>
+      <c r="O45">
+        <v>1500.567</v>
+      </c>
+      <c r="P45">
+        <v>628.649</v>
+      </c>
+      <c r="Q45">
+        <v>38.097000000000001</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>458.71600000000001</v>
+      </c>
+      <c r="U45">
+        <v>130.25700000000001</v>
+      </c>
+      <c r="V45">
+        <v>70.617000000000004</v>
+      </c>
+      <c r="W45">
+        <v>-2.819</v>
+      </c>
+      <c r="X45">
+        <v>13.311999999999999</v>
+      </c>
+      <c r="Y45">
+        <v>55.201999999999998</v>
+      </c>
+      <c r="Z45">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="AA45">
+        <v>41.658999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>36.698999999999998</v>
+      </c>
+      <c r="D46">
+        <v>790.34</v>
+      </c>
+      <c r="E46">
+        <v>604.52200000000005</v>
+      </c>
+      <c r="F46">
+        <v>112.744</v>
+      </c>
+      <c r="G46">
+        <v>1064.249</v>
+      </c>
+      <c r="H46">
+        <v>1984.095</v>
+      </c>
+      <c r="I46">
+        <v>437.96499999999997</v>
+      </c>
+      <c r="J46">
+        <v>531.08799999999997</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>791.83600000000001</v>
+      </c>
+      <c r="O46">
+        <v>1494.2180000000001</v>
+      </c>
+      <c r="P46">
+        <v>653.52300000000002</v>
+      </c>
+      <c r="Q46">
+        <v>44.951000000000001</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>6208</v>
+      </c>
+      <c r="T46">
+        <v>489.87700000000001</v>
+      </c>
+      <c r="U46">
+        <v>175.208</v>
+      </c>
+      <c r="V46">
+        <v>53.975000000000001</v>
+      </c>
+      <c r="W46">
+        <v>-2.7909999999999999</v>
+      </c>
+      <c r="X46">
+        <v>5.1779999999999999</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>7.5410000000000004</v>
+      </c>
+      <c r="AA46">
+        <v>36.698999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-19.588999999999999</v>
+      </c>
+      <c r="D47">
+        <v>486.42500000000001</v>
+      </c>
+      <c r="E47">
+        <v>507.12900000000002</v>
+      </c>
+      <c r="F47">
+        <v>30.579000000000001</v>
+      </c>
+      <c r="G47">
+        <v>960.83699999999999</v>
+      </c>
+      <c r="H47">
+        <v>1893.14</v>
+      </c>
+      <c r="I47">
+        <v>354.834</v>
+      </c>
+      <c r="J47">
+        <v>551.02099999999996</v>
+      </c>
+      <c r="K47">
+        <v>60</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-62.85</v>
+      </c>
+      <c r="N47">
+        <v>713.66499999999996</v>
+      </c>
+      <c r="O47">
+        <v>1433.6410000000001</v>
+      </c>
+      <c r="P47">
+        <v>683.48099999999999</v>
+      </c>
+      <c r="Q47">
+        <v>-48.218000000000004</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>459.49900000000002</v>
+      </c>
+      <c r="U47">
+        <v>125.56100000000001</v>
+      </c>
+      <c r="V47">
+        <v>-29.224</v>
+      </c>
+      <c r="W47">
+        <v>-2.7909999999999999</v>
+      </c>
+      <c r="X47">
+        <v>-6.64</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>-12.32</v>
+      </c>
+      <c r="AA47">
+        <v>-19.588999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>5.0359999999999996</v>
+      </c>
+      <c r="D48">
+        <v>648.06299999999999</v>
+      </c>
+      <c r="E48">
+        <v>518.53200000000004</v>
+      </c>
+      <c r="F48">
+        <v>56.271000000000001</v>
+      </c>
+      <c r="G48">
+        <v>932.21799999999996</v>
+      </c>
+      <c r="H48">
+        <v>1902.184</v>
+      </c>
+      <c r="I48">
+        <v>362.185</v>
+      </c>
+      <c r="J48">
+        <v>559.649</v>
+      </c>
+      <c r="K48">
+        <v>69.977999999999994</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>708.18</v>
+      </c>
+      <c r="O48">
+        <v>1438.654</v>
+      </c>
+      <c r="P48">
+        <v>692.12900000000002</v>
+      </c>
+      <c r="Q48">
+        <v>-23.620999999999999</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>463.53</v>
+      </c>
+      <c r="U48">
+        <v>102.628</v>
+      </c>
+      <c r="V48">
+        <v>1.298</v>
+      </c>
+      <c r="W48">
+        <v>-3.9060000000000001</v>
+      </c>
+      <c r="X48">
+        <v>-5.1029999999999998</v>
+      </c>
+      <c r="Y48">
+        <v>0</v>
+      </c>
+      <c r="Z48">
+        <v>-0.35199999999999998</v>
+      </c>
+      <c r="AA48">
+        <v>5.0339999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>35.82</v>
+      </c>
+      <c r="D49">
+        <v>820.47699999999998</v>
+      </c>
+      <c r="E49">
+        <v>675.84500000000003</v>
+      </c>
+      <c r="F49">
+        <v>98.823999999999998</v>
+      </c>
+      <c r="G49">
+        <v>1094.0619999999999</v>
+      </c>
+      <c r="H49">
+        <v>2070.7069999999999</v>
+      </c>
+      <c r="I49">
+        <v>431.73399999999998</v>
+      </c>
+      <c r="J49">
+        <v>547.95299999999997</v>
+      </c>
+      <c r="K49">
+        <v>132.43299999999999</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>881.09799999999996</v>
+      </c>
+      <c r="O49">
+        <v>1578.402</v>
+      </c>
+      <c r="P49">
+        <v>746.43799999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-18.245000000000001</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>492.30500000000001</v>
+      </c>
+      <c r="U49">
+        <v>86.965999999999994</v>
+      </c>
+      <c r="V49">
+        <v>-41.295000000000002</v>
+      </c>
+      <c r="W49">
+        <v>-3.907</v>
+      </c>
+      <c r="X49">
+        <v>40.999000000000002</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>-5.08</v>
+      </c>
+      <c r="AA49">
+        <v>35.81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>56.329000000000001</v>
+      </c>
+      <c r="D50">
+        <v>932.14</v>
+      </c>
+      <c r="E50">
+        <v>734.46100000000001</v>
+      </c>
+      <c r="F50">
+        <v>93.247</v>
+      </c>
+      <c r="G50">
+        <v>1063.8130000000001</v>
+      </c>
+      <c r="H50">
+        <v>1863.6130000000001</v>
+      </c>
+      <c r="I50">
+        <v>519.404</v>
+      </c>
+      <c r="J50">
+        <v>399.23700000000002</v>
+      </c>
+      <c r="K50">
+        <v>10.368</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>834.84900000000005</v>
+      </c>
+      <c r="O50">
+        <v>1320.4549999999999</v>
+      </c>
+      <c r="P50">
+        <v>471.50400000000002</v>
+      </c>
+      <c r="Q50">
+        <v>-19.856000000000002</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>12000</v>
+      </c>
+      <c r="T50">
+        <v>543.15800000000002</v>
+      </c>
+      <c r="U50">
+        <v>63.301000000000002</v>
+      </c>
+      <c r="V50">
+        <v>120.949</v>
+      </c>
+      <c r="W50">
+        <v>-3.907</v>
+      </c>
+      <c r="X50">
+        <v>-126.212</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>-0.66600000000000004</v>
+      </c>
+      <c r="AA50">
+        <v>56.329000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>-29.911999999999999</v>
+      </c>
+      <c r="D51">
+        <v>567.43899999999996</v>
+      </c>
+      <c r="E51">
+        <v>697.54700000000003</v>
+      </c>
+      <c r="F51">
+        <v>22.504999999999999</v>
+      </c>
+      <c r="G51">
+        <v>1006.544</v>
+      </c>
+      <c r="H51">
+        <v>1814.213</v>
+      </c>
+      <c r="I51">
+        <v>429.411</v>
+      </c>
+      <c r="J51">
+        <v>392.06900000000002</v>
+      </c>
+      <c r="K51">
+        <v>81.876000000000005</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-15.74</v>
+      </c>
+      <c r="N51">
+        <v>824.404</v>
+      </c>
+      <c r="O51">
+        <v>1302.739</v>
+      </c>
+      <c r="P51">
+        <v>536.28099999999995</v>
+      </c>
+      <c r="Q51">
+        <v>17.488</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>511.47399999999999</v>
+      </c>
+      <c r="U51">
+        <v>80.789000000000001</v>
+      </c>
+      <c r="V51">
+        <v>-32.962000000000003</v>
+      </c>
+      <c r="W51">
+        <v>-3.907</v>
+      </c>
+      <c r="X51">
+        <v>53.551000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>1.131</v>
+      </c>
+      <c r="AA51">
+        <v>-29.911999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>7.8869999999999996</v>
+      </c>
+      <c r="D52">
+        <v>697.64099999999996</v>
+      </c>
+      <c r="E52">
+        <v>668.024</v>
+      </c>
+      <c r="F52">
+        <v>59.325000000000003</v>
+      </c>
+      <c r="G52">
+        <v>999.86699999999996</v>
+      </c>
+      <c r="H52">
+        <v>1828.0150000000001</v>
+      </c>
+      <c r="I52">
+        <v>402.94499999999999</v>
+      </c>
+      <c r="J52">
+        <v>387.173</v>
+      </c>
+      <c r="K52">
+        <v>129.47900000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>849.99800000000005</v>
+      </c>
+      <c r="O52">
+        <v>1319.31</v>
+      </c>
+      <c r="P52">
+        <v>580.846</v>
+      </c>
+      <c r="Q52">
+        <v>-2.9239999999999999</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>508.70499999999998</v>
+      </c>
+      <c r="U52">
+        <v>77.864999999999995</v>
+      </c>
+      <c r="V52">
+        <v>-8.952</v>
+      </c>
+      <c r="W52">
+        <v>-4.47</v>
+      </c>
+      <c r="X52">
+        <v>22.170999999999999</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>-5.7960000000000003</v>
+      </c>
+      <c r="AA52">
+        <v>7.8869999999999996</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>34.369999999999997</v>
+      </c>
+      <c r="D53">
+        <v>897.31500000000005</v>
+      </c>
+      <c r="E53">
+        <v>719.41499999999996</v>
+      </c>
+      <c r="F53">
+        <v>94.085999999999999</v>
+      </c>
+      <c r="G53">
+        <v>1076.7809999999999</v>
+      </c>
+      <c r="H53">
+        <v>1914.36</v>
+      </c>
+      <c r="I53">
+        <v>487.31400000000002</v>
+      </c>
+      <c r="J53">
+        <v>218.11699999999999</v>
+      </c>
+      <c r="K53">
+        <v>129.16300000000001</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>1070.9960000000001</v>
+      </c>
+      <c r="O53">
+        <v>1370.903</v>
+      </c>
+      <c r="P53">
+        <v>581.68100000000004</v>
+      </c>
+      <c r="Q53">
+        <v>5.5910000000000002</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>12000</v>
+      </c>
+      <c r="T53">
+        <v>543.45699999999999</v>
+      </c>
+      <c r="U53">
+        <v>83.456000000000003</v>
+      </c>
+      <c r="V53">
+        <v>30.652000000000001</v>
+      </c>
+      <c r="W53">
+        <v>-4.468</v>
+      </c>
+      <c r="X53">
+        <v>-15.959</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>6.1319999999999997</v>
+      </c>
+      <c r="AA53">
+        <v>34.369999999999997</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>28.253</v>
+      </c>
+      <c r="D54">
+        <v>906.21299999999997</v>
+      </c>
+      <c r="E54">
+        <v>629.03800000000001</v>
+      </c>
+      <c r="F54">
+        <v>94.558000000000007</v>
+      </c>
+      <c r="G54">
+        <v>1129.588</v>
+      </c>
+      <c r="H54">
+        <v>1993.586</v>
+      </c>
+      <c r="I54">
+        <v>477.23</v>
+      </c>
+      <c r="J54">
+        <v>371.94499999999999</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>940.35599999999999</v>
+      </c>
+      <c r="O54">
+        <v>1406.9780000000001</v>
+      </c>
+      <c r="P54">
+        <v>613.41700000000003</v>
+      </c>
+      <c r="Q54">
+        <v>157.14599999999999</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>12000</v>
+      </c>
+      <c r="T54">
+        <v>586.60799999999995</v>
+      </c>
+      <c r="U54">
+        <v>240.602</v>
+      </c>
+      <c r="V54">
+        <v>145.28299999999999</v>
+      </c>
+      <c r="W54">
+        <v>-4.4729999999999999</v>
+      </c>
+      <c r="X54">
+        <v>26.498000000000001</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="AA54">
+        <v>28.253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>-25.901</v>
+      </c>
+      <c r="D55">
+        <v>461.87299999999999</v>
+      </c>
+      <c r="E55">
+        <v>577.37199999999996</v>
+      </c>
+      <c r="F55">
+        <v>32.817</v>
+      </c>
+      <c r="G55">
+        <v>986.91899999999998</v>
+      </c>
+      <c r="H55">
+        <v>1869.433</v>
+      </c>
+      <c r="I55">
+        <v>382.637</v>
+      </c>
+      <c r="J55">
+        <v>365.82499999999999</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-17.64</v>
+      </c>
+      <c r="N55">
+        <v>840.93499999999995</v>
+      </c>
+      <c r="O55">
+        <v>1301.3889999999999</v>
+      </c>
+      <c r="P55">
+        <v>609.63</v>
+      </c>
+      <c r="Q55">
+        <v>-94.117999999999995</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>568.04399999999998</v>
+      </c>
+      <c r="U55">
+        <v>146.48400000000001</v>
+      </c>
+      <c r="V55">
+        <v>-70.988</v>
+      </c>
+      <c r="W55">
+        <v>-4.4939999999999998</v>
+      </c>
+      <c r="X55">
+        <v>-12.46</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="AA55">
+        <v>-25.901</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>-12.215</v>
+      </c>
+      <c r="D56">
+        <v>589.56600000000003</v>
+      </c>
+      <c r="E56">
+        <v>593.04700000000003</v>
+      </c>
+      <c r="F56">
+        <v>44.036999999999999</v>
+      </c>
+      <c r="G56">
+        <v>959.39200000000005</v>
+      </c>
+      <c r="H56">
+        <v>1844.9010000000001</v>
+      </c>
+      <c r="I56">
+        <v>377.87200000000001</v>
+      </c>
+      <c r="J56">
+        <v>369.03100000000001</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>830.46100000000001</v>
+      </c>
+      <c r="O56">
+        <v>1295.2139999999999</v>
+      </c>
+      <c r="P56">
+        <v>612.88800000000003</v>
+      </c>
+      <c r="Q56">
+        <v>-42.006</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>549.68700000000001</v>
+      </c>
+      <c r="U56">
+        <v>104.47799999999999</v>
+      </c>
+      <c r="V56">
+        <v>-29.215</v>
+      </c>
+      <c r="W56">
+        <v>-5.0810000000000004</v>
+      </c>
+      <c r="X56">
+        <v>-6.93</v>
+      </c>
+      <c r="Y56">
+        <v>0</v>
+      </c>
+      <c r="Z56">
+        <v>8.157</v>
+      </c>
+      <c r="AA56">
+        <v>-12.215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>39.529000000000003</v>
+      </c>
+      <c r="D57">
+        <v>840.399</v>
+      </c>
+      <c r="E57">
+        <v>710.04499999999996</v>
+      </c>
+      <c r="F57">
+        <v>96.277000000000001</v>
+      </c>
+      <c r="G57">
+        <v>1099.501</v>
+      </c>
+      <c r="H57">
+        <v>1983.403</v>
+      </c>
+      <c r="I57">
+        <v>507.79700000000003</v>
+      </c>
+      <c r="J57">
+        <v>355.80399999999997</v>
+      </c>
+      <c r="K57">
+        <v>110</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>909.85199999999998</v>
+      </c>
+      <c r="O57">
+        <v>1361.7639999999999</v>
+      </c>
+      <c r="P57">
+        <v>536.90300000000002</v>
+      </c>
+      <c r="Q57">
+        <v>11.353</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>621.63900000000001</v>
+      </c>
+      <c r="U57">
+        <v>115.831</v>
+      </c>
+      <c r="V57">
+        <v>58.863999999999997</v>
+      </c>
+      <c r="W57">
+        <v>-5.08</v>
+      </c>
+      <c r="X57">
+        <v>-40.947000000000003</v>
+      </c>
+      <c r="Y57">
+        <v>0</v>
+      </c>
+      <c r="Z57">
+        <v>5.08</v>
+      </c>
+      <c r="AA57">
+        <v>39.527999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>28.629000000000001</v>
+      </c>
+      <c r="D58">
+        <v>722.24</v>
+      </c>
+      <c r="E58">
+        <v>577.52</v>
+      </c>
+      <c r="F58">
+        <v>97.906000000000006</v>
+      </c>
+      <c r="G58">
+        <v>963.13499999999999</v>
+      </c>
+      <c r="H58">
+        <v>1830.11</v>
+      </c>
+      <c r="I58">
+        <v>441.27499999999998</v>
+      </c>
+      <c r="J58">
+        <v>270.90300000000002</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>823.98099999999999</v>
+      </c>
+      <c r="O58">
+        <v>1174.1600000000001</v>
+      </c>
+      <c r="P58">
+        <v>444.94499999999999</v>
+      </c>
+      <c r="Q58">
+        <v>23.093</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>10000</v>
+      </c>
+      <c r="T58">
+        <v>655.95</v>
+      </c>
+      <c r="U58">
+        <v>138.92400000000001</v>
+      </c>
+      <c r="V58">
+        <v>116.14100000000001</v>
+      </c>
+      <c r="W58">
+        <v>-5.08</v>
+      </c>
+      <c r="X58">
+        <v>-106.426</v>
+      </c>
+      <c r="Y58">
+        <v>0</v>
+      </c>
+      <c r="Z58">
+        <v>28.143000000000001</v>
+      </c>
+      <c r="AA58">
+        <v>28.629000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>-16.978999999999999</v>
+      </c>
+      <c r="D59">
+        <v>501.52</v>
+      </c>
+      <c r="E59">
+        <v>619.601</v>
+      </c>
+      <c r="F59">
+        <v>36.899000000000001</v>
+      </c>
+      <c r="G59">
+        <v>971.81299999999999</v>
+      </c>
+      <c r="H59">
+        <v>1869.92</v>
+      </c>
+      <c r="I59">
+        <v>408.137</v>
+      </c>
+      <c r="J59">
+        <v>267.35599999999999</v>
+      </c>
+      <c r="K59">
+        <v>89.492999999999995</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-19.965</v>
+      </c>
+      <c r="N59">
+        <v>868.40899999999999</v>
+      </c>
+      <c r="O59">
+        <v>1215.5820000000001</v>
+      </c>
+      <c r="P59">
+        <v>524.99099999999999</v>
+      </c>
+      <c r="Q59">
+        <v>-44.295999999999999</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>654.33799999999997</v>
+      </c>
+      <c r="U59">
+        <v>94.628</v>
+      </c>
+      <c r="V59">
+        <v>-105.438</v>
+      </c>
+      <c r="W59">
+        <v>-5.05</v>
+      </c>
+      <c r="X59">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>-0.63700000000000001</v>
+      </c>
+      <c r="AA59">
+        <v>-16.978999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>12.369</v>
+      </c>
+      <c r="D60">
+        <v>667.31100000000004</v>
+      </c>
+      <c r="E60">
+        <v>665.00599999999997</v>
+      </c>
+      <c r="F60">
+        <v>57.918999999999997</v>
+      </c>
+      <c r="G60">
+        <v>1252.117</v>
+      </c>
+      <c r="H60">
+        <v>1892.9169999999999</v>
+      </c>
+      <c r="I60">
+        <v>425.23099999999999</v>
+      </c>
+      <c r="J60">
+        <v>262.09199999999998</v>
+      </c>
+      <c r="K60">
+        <v>86.555999999999997</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>862.274</v>
+      </c>
+      <c r="O60">
+        <v>1203.8440000000001</v>
+      </c>
+      <c r="P60">
+        <v>511.2</v>
+      </c>
+      <c r="Q60">
+        <v>11.871</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>689.07299999999998</v>
+      </c>
+      <c r="U60">
+        <v>106.499</v>
+      </c>
+      <c r="V60">
+        <v>15.209</v>
+      </c>
+      <c r="W60">
+        <v>-5.6749999999999998</v>
+      </c>
+      <c r="X60">
+        <v>-25.544</v>
+      </c>
+      <c r="Y60">
+        <v>0</v>
+      </c>
+      <c r="Z60">
+        <v>6.5810000000000004</v>
+      </c>
+      <c r="AA60">
+        <v>12.369</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>25.584</v>
+      </c>
+      <c r="D61">
+        <v>874.94299999999998</v>
+      </c>
+      <c r="E61">
+        <v>818.10699999999997</v>
+      </c>
+      <c r="F61">
+        <v>108.07899999999999</v>
+      </c>
+      <c r="G61">
+        <v>1470.76</v>
+      </c>
+      <c r="H61">
+        <v>2106.712</v>
+      </c>
+      <c r="I61">
+        <v>500.19499999999999</v>
+      </c>
+      <c r="J61">
+        <v>262.75900000000001</v>
+      </c>
+      <c r="K61">
+        <v>129.465</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1063.0329999999999</v>
+      </c>
+      <c r="O61">
+        <v>1409.9690000000001</v>
+      </c>
+      <c r="P61">
+        <v>550.43899999999996</v>
+      </c>
+      <c r="Q61">
+        <v>29.867999999999999</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>696.74300000000005</v>
+      </c>
+      <c r="U61">
+        <v>136.36699999999999</v>
+      </c>
+      <c r="V61">
+        <v>17.076000000000001</v>
+      </c>
+      <c r="W61">
+        <v>-5.6539999999999999</v>
+      </c>
+      <c r="X61">
+        <v>30.923999999999999</v>
+      </c>
+      <c r="Y61">
+        <v>0</v>
+      </c>
+      <c r="Z61">
+        <v>-2.0979999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>25.58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>47.703000000000003</v>
+      </c>
+      <c r="D62">
+        <v>874.30799999999999</v>
+      </c>
+      <c r="E62">
+        <v>694.34799999999996</v>
+      </c>
+      <c r="F62">
+        <v>95.177999999999997</v>
+      </c>
+      <c r="G62">
+        <v>1242.1790000000001</v>
+      </c>
+      <c r="H62">
+        <v>1874.3620000000001</v>
+      </c>
+      <c r="I62">
+        <v>422.16899999999998</v>
+      </c>
+      <c r="J62">
+        <v>266.34899999999999</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>771.97299999999996</v>
+      </c>
+      <c r="O62">
+        <v>1156.31</v>
+      </c>
+      <c r="P62">
+        <v>322.38200000000001</v>
+      </c>
+      <c r="Q62">
+        <v>146.36500000000001</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>12000</v>
+      </c>
+      <c r="T62">
+        <v>718.05200000000002</v>
+      </c>
+      <c r="U62">
+        <v>282.73200000000003</v>
+      </c>
+      <c r="V62">
+        <v>131.25800000000001</v>
+      </c>
+      <c r="W62">
+        <v>-5.681</v>
+      </c>
+      <c r="X62">
+        <v>-239.59800000000001</v>
+      </c>
+      <c r="Y62">
+        <v>0</v>
+      </c>
+      <c r="Z62">
+        <v>9.8260000000000005</v>
+      </c>
+      <c r="AA62">
+        <v>47.703000000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>-16.788</v>
+      </c>
+      <c r="D63">
+        <v>690.69899999999996</v>
+      </c>
+      <c r="E63">
+        <v>801.3</v>
+      </c>
+      <c r="F63">
+        <v>45.116</v>
+      </c>
+      <c r="G63">
+        <v>1273.1880000000001</v>
+      </c>
+      <c r="H63">
+        <v>1901.355</v>
+      </c>
+      <c r="I63">
+        <v>470.81</v>
+      </c>
+      <c r="J63">
+        <v>262.58100000000002</v>
+      </c>
+      <c r="K63">
+        <v>20</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-12.653</v>
+      </c>
+      <c r="N63">
+        <v>821.38400000000001</v>
+      </c>
+      <c r="O63">
+        <v>1201.944</v>
+      </c>
+      <c r="P63">
+        <v>338.41199999999998</v>
+      </c>
+      <c r="Q63">
+        <v>-68.364000000000004</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>699.41099999999994</v>
+      </c>
+      <c r="U63">
+        <v>214.36799999999999</v>
+      </c>
+      <c r="V63">
+        <v>-68.628</v>
+      </c>
+      <c r="W63">
+        <v>-5.6820000000000004</v>
+      </c>
+      <c r="X63">
+        <v>6.1509999999999998</v>
+      </c>
+      <c r="Y63">
+        <v>0</v>
+      </c>
+      <c r="Z63">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="AA63">
+        <v>-16.788</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>7.0869999999999997</v>
+      </c>
+      <c r="D64">
+        <v>839.31399999999996</v>
+      </c>
+      <c r="E64">
+        <v>854.01199999999994</v>
+      </c>
+      <c r="F64">
+        <v>76.450999999999993</v>
+      </c>
+      <c r="G64">
+        <v>1295.383</v>
+      </c>
+      <c r="H64">
+        <v>1911.4860000000001</v>
+      </c>
+      <c r="I64">
+        <v>466.52199999999999</v>
+      </c>
+      <c r="J64">
+        <v>257.08</v>
+      </c>
+      <c r="K64">
+        <v>60</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>835.02700000000004</v>
+      </c>
+      <c r="O64">
+        <v>1210.2460000000001</v>
+      </c>
+      <c r="P64">
+        <v>373.92399999999998</v>
+      </c>
+      <c r="Q64">
+        <v>-26.843</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>701.24</v>
+      </c>
+      <c r="U64">
+        <v>187.52500000000001</v>
+      </c>
+      <c r="V64">
+        <v>-53.726999999999997</v>
+      </c>
+      <c r="W64">
+        <v>-6.5919999999999996</v>
+      </c>
+      <c r="X64">
+        <v>23.042999999999999</v>
+      </c>
+      <c r="Y64">
+        <v>0</v>
+      </c>
+      <c r="Z64">
+        <v>7.2489999999999997</v>
+      </c>
+      <c r="AA64">
+        <v>7.0860000000000003</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>27.366</v>
+      </c>
+      <c r="D65">
+        <v>838.06899999999996</v>
+      </c>
+      <c r="E65">
+        <v>878.928</v>
+      </c>
+      <c r="F65">
+        <v>96.03</v>
+      </c>
+      <c r="G65">
+        <v>1373.848</v>
+      </c>
+      <c r="H65">
+        <v>1979.183</v>
+      </c>
+      <c r="I65">
+        <v>503.20699999999999</v>
+      </c>
+      <c r="J65">
+        <v>255.21299999999999</v>
+      </c>
+      <c r="K65">
+        <v>40</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>879.65200000000004</v>
+      </c>
+      <c r="O65">
+        <v>1254.846</v>
+      </c>
+      <c r="P65">
+        <v>347.66300000000001</v>
+      </c>
+      <c r="Q65">
+        <v>14.753</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>724.33699999999999</v>
+      </c>
+      <c r="U65">
+        <v>202.27799999999999</v>
+      </c>
+      <c r="V65">
+        <v>55.881999999999998</v>
+      </c>
+      <c r="W65">
+        <v>-6.5990000000000002</v>
+      </c>
+      <c r="X65">
+        <v>-35.18</v>
+      </c>
+      <c r="Y65">
+        <v>0</v>
+      </c>
+      <c r="Z65">
+        <v>1.794</v>
+      </c>
+      <c r="AA65">
+        <v>27.366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>29.091999999999999</v>
+      </c>
+      <c r="D66">
+        <v>845.05100000000004</v>
+      </c>
+      <c r="E66">
+        <v>870.47799999999995</v>
+      </c>
+      <c r="F66">
+        <v>101.771</v>
+      </c>
+      <c r="G66">
+        <v>1389.3</v>
+      </c>
+      <c r="H66">
+        <v>2005.4849999999999</v>
+      </c>
+      <c r="I66">
+        <v>494.83300000000003</v>
+      </c>
+      <c r="J66">
+        <v>251.18100000000001</v>
+      </c>
+      <c r="K66">
+        <v>7.476</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>864.76400000000001</v>
+      </c>
+      <c r="O66">
+        <v>1251.886</v>
+      </c>
+      <c r="P66">
+        <v>310.22500000000002</v>
+      </c>
+      <c r="Q66">
+        <v>29.58</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>12000</v>
+      </c>
+      <c r="T66">
+        <v>753.59900000000005</v>
+      </c>
+      <c r="U66">
+        <v>231.858</v>
+      </c>
+      <c r="V66">
+        <v>93.358999999999995</v>
+      </c>
+      <c r="W66">
+        <v>-6.6950000000000003</v>
+      </c>
+      <c r="X66">
+        <v>-51.017000000000003</v>
+      </c>
+      <c r="Y66">
+        <v>0</v>
+      </c>
+      <c r="Z66">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AA66">
+        <v>29.091999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>-18.346</v>
+      </c>
+      <c r="D67">
+        <v>674.86599999999999</v>
+      </c>
+      <c r="E67">
+        <v>885.87800000000004</v>
+      </c>
+      <c r="F67">
+        <v>51.045000000000002</v>
+      </c>
+      <c r="G67">
+        <v>1758.22</v>
+      </c>
+      <c r="H67">
+        <v>2533</v>
+      </c>
+      <c r="I67">
+        <v>500.43200000000002</v>
+      </c>
+      <c r="J67">
+        <v>625.58799999999997</v>
+      </c>
+      <c r="K67">
+        <v>35</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-13.398</v>
+      </c>
+      <c r="N67">
+        <v>918.726</v>
+      </c>
+      <c r="O67">
+        <v>1797.5920000000001</v>
+      </c>
+      <c r="P67">
+        <v>709.17600000000004</v>
+      </c>
+      <c r="Q67">
+        <v>72.537999999999997</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>735.40800000000002</v>
+      </c>
+      <c r="U67">
+        <v>304.39600000000002</v>
+      </c>
+      <c r="V67">
+        <v>78.566000000000003</v>
+      </c>
+      <c r="W67">
+        <v>-7.3070000000000004</v>
+      </c>
+      <c r="X67">
+        <v>390.26</v>
+      </c>
+      <c r="Y67">
+        <v>0</v>
+      </c>
+      <c r="Z67">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="AA67">
+        <v>-18.346</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D68">
+        <v>686.16399999999999</v>
+      </c>
+      <c r="E68">
+        <v>998.53399999999999</v>
+      </c>
+      <c r="F68">
+        <v>71.570999999999998</v>
+      </c>
+      <c r="G68">
+        <v>1836.058</v>
+      </c>
+      <c r="H68">
+        <v>2607.1759999999999</v>
+      </c>
+      <c r="I68">
+        <v>532.87699999999995</v>
+      </c>
+      <c r="J68">
+        <v>613.54200000000003</v>
+      </c>
+      <c r="K68">
+        <v>130</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>1020.705</v>
+      </c>
+      <c r="O68">
+        <v>1875.3209999999999</v>
+      </c>
+      <c r="P68">
+        <v>789.58600000000001</v>
+      </c>
+      <c r="Q68">
+        <v>-26.484000000000002</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>731.85500000000002</v>
+      </c>
+      <c r="U68">
+        <v>277.91199999999998</v>
+      </c>
+      <c r="V68">
+        <v>-96.001000000000005</v>
+      </c>
+      <c r="W68">
+        <v>-6.6550000000000002</v>
+      </c>
+      <c r="X68">
+        <v>73.926000000000002</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="AA68">
+        <v>0.80700000000000005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>24.635000000000002</v>
+      </c>
+      <c r="D69">
+        <v>759.68399999999997</v>
+      </c>
+      <c r="E69">
+        <v>1084.9349999999999</v>
+      </c>
+      <c r="F69">
+        <v>99.287999999999997</v>
+      </c>
+      <c r="G69">
+        <v>1905.5909999999999</v>
+      </c>
+      <c r="H69">
+        <v>2704.9670000000001</v>
+      </c>
+      <c r="I69">
+        <v>619.28099999999995</v>
+      </c>
+      <c r="J69">
+        <v>606.96600000000001</v>
+      </c>
+      <c r="K69">
+        <v>145</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>1101.365</v>
+      </c>
+      <c r="O69">
+        <v>1951.857</v>
+      </c>
+      <c r="P69">
+        <v>798.73800000000006</v>
+      </c>
+      <c r="Q69">
+        <v>20.164999999999999</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>753.11</v>
+      </c>
+      <c r="U69">
+        <v>298.077</v>
+      </c>
+      <c r="V69">
+        <v>36.637</v>
+      </c>
+      <c r="W69">
+        <v>-7.343</v>
+      </c>
+      <c r="X69">
+        <v>-4.0869999999999997</v>
+      </c>
+      <c r="Y69">
+        <v>0</v>
+      </c>
+      <c r="Z69">
+        <v>-1.6930000000000001</v>
+      </c>
+      <c r="AA69">
+        <v>24.635000000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>21.08</v>
+      </c>
+      <c r="D70">
+        <v>685.01400000000001</v>
+      </c>
+      <c r="E70">
+        <v>888.01300000000003</v>
+      </c>
+      <c r="F70">
+        <v>97.119</v>
+      </c>
+      <c r="G70">
+        <v>1681.095</v>
+      </c>
+      <c r="H70">
+        <v>2485.19</v>
+      </c>
+      <c r="I70">
+        <v>534.60699999999997</v>
+      </c>
+      <c r="J70">
+        <v>370.125</v>
+      </c>
+      <c r="K70">
+        <v>17.940000000000001</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>1074.5119999999999</v>
+      </c>
+      <c r="O70">
+        <v>1729.2149999999999</v>
+      </c>
+      <c r="P70">
+        <v>674.97699999999998</v>
+      </c>
+      <c r="Q70">
+        <v>6.8049999999999997</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>5850</v>
+      </c>
+      <c r="T70">
+        <v>755.97500000000002</v>
+      </c>
+      <c r="U70">
+        <v>304.88200000000001</v>
+      </c>
+      <c r="V70">
+        <v>178.215</v>
+      </c>
+      <c r="W70">
+        <v>-7.3620000000000001</v>
+      </c>
+      <c r="X70">
+        <v>-142.334</v>
+      </c>
+      <c r="Y70">
+        <v>73.974000000000004</v>
+      </c>
+      <c r="Z70">
+        <v>7.3849999999999998</v>
+      </c>
+      <c r="AA70">
+        <v>21.08</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>-19.245000000000001</v>
+      </c>
+      <c r="D71">
+        <v>543.32500000000005</v>
+      </c>
+      <c r="E71">
+        <v>913.15700000000004</v>
+      </c>
+      <c r="F71">
+        <v>46.97</v>
+      </c>
+      <c r="G71">
+        <v>1647.107</v>
+      </c>
+      <c r="H71">
+        <v>2465.7379999999998</v>
+      </c>
+      <c r="I71">
+        <v>512.66600000000005</v>
+      </c>
+      <c r="J71">
+        <v>445.89699999999999</v>
+      </c>
+      <c r="K71">
+        <v>29.45</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-11.677</v>
+      </c>
+      <c r="N71">
+        <v>1047.06</v>
+      </c>
+      <c r="O71">
+        <v>1725.9760000000001</v>
+      </c>
+      <c r="P71">
+        <v>683.29</v>
+      </c>
+      <c r="Q71">
+        <v>-42.307000000000002</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>739.76199999999994</v>
+      </c>
+      <c r="U71">
+        <v>262.57499999999999</v>
+      </c>
+      <c r="V71">
+        <v>-28.838999999999999</v>
+      </c>
+      <c r="W71">
+        <v>-7.4119999999999999</v>
+      </c>
+      <c r="X71">
+        <v>-6.1479999999999997</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>-2.5</v>
+      </c>
+      <c r="AA71">
+        <v>-19.245000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>8.4039999999999999</v>
+      </c>
+      <c r="D72">
+        <v>754.77300000000002</v>
+      </c>
+      <c r="E72">
+        <v>937.41499999999996</v>
+      </c>
+      <c r="F72">
+        <v>79.495999999999995</v>
+      </c>
+      <c r="G72">
+        <v>1854.472</v>
+      </c>
+      <c r="H72">
+        <v>2707.16</v>
+      </c>
+      <c r="I72">
+        <v>602.47</v>
+      </c>
+      <c r="J72">
+        <v>452.21300000000002</v>
+      </c>
+      <c r="K72">
+        <v>14.65</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>1272.6199999999999</v>
+      </c>
+      <c r="O72">
+        <v>1963.2170000000001</v>
+      </c>
+      <c r="P72">
+        <v>675.17200000000003</v>
+      </c>
+      <c r="Q72">
+        <v>170.387</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>743.94299999999998</v>
+      </c>
+      <c r="U72">
+        <v>432.96199999999999</v>
+      </c>
+      <c r="V72">
+        <v>235.381</v>
+      </c>
+      <c r="W72">
+        <v>-7.4619999999999997</v>
+      </c>
+      <c r="X72">
+        <v>-33.534999999999997</v>
+      </c>
+      <c r="Y72">
+        <v>0</v>
+      </c>
+      <c r="Z72">
+        <v>-8.9169999999999998</v>
+      </c>
+      <c r="AA72">
+        <v>8.4039999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>41.99</v>
+      </c>
+      <c r="D73">
+        <v>1019.68</v>
+      </c>
+      <c r="E73">
+        <v>1146.732</v>
+      </c>
+      <c r="F73">
+        <v>125.05500000000001</v>
+      </c>
+      <c r="G73">
+        <v>2318.61</v>
+      </c>
+      <c r="H73">
+        <v>3203.4650000000001</v>
+      </c>
+      <c r="I73">
+        <v>793.82899999999995</v>
+      </c>
+      <c r="J73">
+        <v>584.41999999999996</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>1586.97</v>
+      </c>
+      <c r="O73">
+        <v>2410.5329999999999</v>
+      </c>
+      <c r="P73">
+        <v>792.86199999999997</v>
+      </c>
+      <c r="Q73">
+        <v>262.94099999999997</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>792.93200000000002</v>
+      </c>
+      <c r="U73">
+        <v>695.90300000000002</v>
+      </c>
+      <c r="V73">
+        <v>160.452</v>
+      </c>
+      <c r="W73">
+        <v>-7.4690000000000003</v>
+      </c>
+      <c r="X73">
+        <v>125.462</v>
+      </c>
+      <c r="Y73">
+        <v>0</v>
+      </c>
+      <c r="Z73">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="AA73">
+        <v>41.99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>27.864999999999998</v>
+      </c>
+      <c r="D74">
+        <v>948.51300000000003</v>
+      </c>
+      <c r="E74">
+        <v>1016.487</v>
+      </c>
+      <c r="F74">
+        <v>105.599</v>
+      </c>
+      <c r="G74">
+        <v>2146.8130000000001</v>
+      </c>
+      <c r="H74">
+        <v>2932.692</v>
+      </c>
+      <c r="I74">
+        <v>631.23099999999999</v>
+      </c>
+      <c r="J74">
+        <v>543.52099999999996</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1263.9100000000001</v>
+      </c>
+      <c r="O74">
+        <v>2107.63</v>
+      </c>
+      <c r="P74">
+        <v>645.73299999999995</v>
+      </c>
+      <c r="Q74">
+        <v>-64.927000000000007</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>6101</v>
+      </c>
+      <c r="T74">
+        <v>825.06200000000001</v>
+      </c>
+      <c r="U74">
+        <v>630.976</v>
+      </c>
+      <c r="V74">
+        <v>1.6850000000000001</v>
+      </c>
+      <c r="W74">
+        <v>-7.4880000000000004</v>
+      </c>
+      <c r="X74">
+        <v>-170.90799999999999</v>
+      </c>
+      <c r="Y74">
+        <v>69.706999999999994</v>
+      </c>
+      <c r="Z74">
+        <v>1.323</v>
+      </c>
+      <c r="AA74">
+        <v>27.864999999999998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>-9.8230000000000004</v>
+      </c>
+      <c r="D75">
+        <v>650.33399999999995</v>
+      </c>
+      <c r="E75">
+        <v>935.89200000000005</v>
+      </c>
+      <c r="F75">
+        <v>46.796999999999997</v>
+      </c>
+      <c r="G75">
+        <v>2001.115</v>
+      </c>
+      <c r="H75">
+        <v>2851.4969999999998</v>
+      </c>
+      <c r="I75">
+        <v>559.32299999999998</v>
+      </c>
+      <c r="J75">
+        <v>557.96600000000001</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-13.122999999999999</v>
+      </c>
+      <c r="N75">
+        <v>1163.979</v>
+      </c>
+      <c r="O75">
+        <v>2046.8219999999999</v>
+      </c>
+      <c r="P75">
+        <v>699.30600000000004</v>
+      </c>
+      <c r="Q75">
+        <v>-37.784999999999997</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>804.67499999999995</v>
+      </c>
+      <c r="U75">
+        <v>593.19100000000003</v>
+      </c>
+      <c r="V75">
+        <v>-12.04</v>
+      </c>
+      <c r="W75">
+        <v>-7.56</v>
+      </c>
+      <c r="X75">
+        <v>-15.023999999999999</v>
+      </c>
+      <c r="Y75">
+        <v>98.423000000000002</v>
+      </c>
+      <c r="Z75">
+        <v>0.24</v>
+      </c>
+      <c r="AA75">
+        <v>-9.8230000000000004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>20.361000000000001</v>
+      </c>
+      <c r="D76">
+        <v>867.31700000000001</v>
+      </c>
+      <c r="E76">
+        <v>1054.6690000000001</v>
+      </c>
+      <c r="F76">
+        <v>96.281000000000006</v>
+      </c>
+      <c r="G76">
+        <v>2032.0260000000001</v>
+      </c>
+      <c r="H76">
+        <v>2931.4490000000001</v>
+      </c>
+      <c r="I76">
+        <v>625.79</v>
+      </c>
+      <c r="J76">
+        <v>556.57600000000002</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1230.8209999999999</v>
+      </c>
+      <c r="O76">
+        <v>2117.6190000000001</v>
+      </c>
+      <c r="P76">
+        <v>712.75599999999997</v>
+      </c>
+      <c r="Q76">
+        <v>-71.191000000000003</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>813.83</v>
+      </c>
+      <c r="U76">
+        <v>522</v>
+      </c>
+      <c r="V76">
+        <v>-43.981000000000002</v>
+      </c>
+      <c r="W76">
+        <v>-8.7959999999999994</v>
+      </c>
+      <c r="X76">
+        <v>-12.759</v>
+      </c>
+      <c r="Y76">
+        <v>103.747</v>
+      </c>
+      <c r="Z76">
+        <v>1E-3</v>
+      </c>
+      <c r="AA76">
+        <v>20.361000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>42.116</v>
+      </c>
+      <c r="D77">
+        <v>1025.4349999999999</v>
+      </c>
+      <c r="E77">
+        <v>1249.0730000000001</v>
+      </c>
+      <c r="F77">
+        <v>120.643</v>
+      </c>
+      <c r="G77">
+        <v>2212.578</v>
+      </c>
+      <c r="H77">
+        <v>3162.8649999999998</v>
+      </c>
+      <c r="I77">
+        <v>746.41800000000001</v>
+      </c>
+      <c r="J77">
+        <v>563.48699999999997</v>
+      </c>
+      <c r="K77">
+        <v>23</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1400.16</v>
+      </c>
+      <c r="O77">
+        <v>2310.297</v>
+      </c>
+      <c r="P77">
+        <v>760.70799999999997</v>
+      </c>
+      <c r="Q77">
+        <v>-35.622999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>852.56799999999998</v>
+      </c>
+      <c r="U77">
+        <v>486.37700000000001</v>
+      </c>
+      <c r="V77">
+        <v>-22.43</v>
+      </c>
+      <c r="W77">
+        <v>-8.81</v>
+      </c>
+      <c r="X77">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="Y77">
+        <v>111.527</v>
+      </c>
+      <c r="Z77">
+        <v>0.5</v>
+      </c>
+      <c r="AA77">
+        <v>42.116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>20.199000000000002</v>
+      </c>
+      <c r="D78">
+        <v>917.33199999999999</v>
+      </c>
+      <c r="E78">
+        <v>997.71799999999996</v>
+      </c>
+      <c r="F78">
+        <v>103.883</v>
+      </c>
+      <c r="G78">
+        <v>2129.404</v>
+      </c>
+      <c r="H78">
+        <v>3114.6379999999999</v>
+      </c>
+      <c r="I78">
+        <v>674.101</v>
+      </c>
+      <c r="J78">
+        <v>530.245</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>1357.8430000000001</v>
+      </c>
+      <c r="O78">
+        <v>2256.6419999999998</v>
+      </c>
+      <c r="P78">
+        <v>735.99800000000005</v>
+      </c>
+      <c r="Q78">
+        <v>195.887</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>4838</v>
+      </c>
+      <c r="T78">
+        <v>857.99599999999998</v>
+      </c>
+      <c r="U78">
+        <v>682.26400000000001</v>
+      </c>
+      <c r="V78">
+        <v>274.39999999999998</v>
+      </c>
+      <c r="W78">
+        <v>-8.81</v>
+      </c>
+      <c r="X78">
+        <v>-48.37</v>
+      </c>
+      <c r="Y78">
+        <v>145.68199999999999</v>
+      </c>
+      <c r="Z78">
+        <v>2.6389999999999998</v>
+      </c>
+      <c r="AA78">
+        <v>20.199000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>-11.414</v>
+      </c>
+      <c r="D79">
+        <v>747.51499999999999</v>
+      </c>
+      <c r="E79">
+        <v>990.73800000000006</v>
+      </c>
+      <c r="F79">
+        <v>61.216000000000001</v>
+      </c>
+      <c r="G79">
+        <v>2068.1689999999999</v>
+      </c>
+      <c r="H79">
+        <v>3145.4360000000001</v>
+      </c>
+      <c r="I79">
+        <v>666.72199999999998</v>
+      </c>
+      <c r="J79">
+        <v>595.51400000000001</v>
+      </c>
+      <c r="K79">
+        <v>30</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-18.265999999999998</v>
+      </c>
+      <c r="N79">
+        <v>1372.28</v>
+      </c>
+      <c r="O79">
+        <v>2307.306</v>
+      </c>
+      <c r="P79">
+        <v>796.79499999999996</v>
+      </c>
+      <c r="Q79">
+        <v>-85.692999999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>838.13</v>
+      </c>
+      <c r="U79">
+        <v>596.57100000000003</v>
+      </c>
+      <c r="V79">
+        <v>-16.818999999999999</v>
+      </c>
+      <c r="W79">
+        <v>-8.8040000000000003</v>
+      </c>
+      <c r="X79">
+        <v>-11.946999999999999</v>
+      </c>
+      <c r="Y79">
+        <v>110.32299999999999</v>
+      </c>
+      <c r="Z79">
+        <v>-0.189</v>
+      </c>
+      <c r="AA79">
+        <v>-11.414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>-6.1630000000000003</v>
+      </c>
+      <c r="D80">
+        <v>779.44799999999998</v>
+      </c>
+      <c r="E80">
+        <v>1089.431</v>
+      </c>
+      <c r="F80">
+        <v>53.834000000000003</v>
+      </c>
+      <c r="G80">
+        <v>2102.364</v>
+      </c>
+      <c r="H80">
+        <v>3177.4059999999999</v>
+      </c>
+      <c r="I80">
+        <v>720.42</v>
+      </c>
+      <c r="J80">
+        <v>581.90200000000004</v>
+      </c>
+      <c r="K80">
+        <v>30</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>1448.624</v>
+      </c>
+      <c r="O80">
+        <v>2373.0279999999998</v>
+      </c>
+      <c r="P80">
+        <v>788.92899999999997</v>
+      </c>
+      <c r="Q80">
+        <v>-74.968000000000004</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>804.37800000000004</v>
+      </c>
+      <c r="U80">
+        <v>521.60299999999995</v>
+      </c>
+      <c r="V80">
+        <v>-46.31</v>
+      </c>
+      <c r="W80">
+        <v>-9.5779999999999994</v>
+      </c>
+      <c r="X80">
+        <v>-18.867999999999999</v>
+      </c>
+      <c r="Y80">
+        <v>112.426</v>
+      </c>
+      <c r="Z80">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AA80">
+        <v>-6.1630000000000003</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>73.623999999999995</v>
+      </c>
+      <c r="D81">
+        <v>1039.4559999999999</v>
+      </c>
+      <c r="E81">
+        <v>1211.665</v>
+      </c>
+      <c r="F81">
+        <v>162.22900000000001</v>
+      </c>
+      <c r="G81">
+        <v>2320.4630000000002</v>
+      </c>
+      <c r="H81">
+        <v>3390.1329999999998</v>
+      </c>
+      <c r="I81">
+        <v>868.03099999999995</v>
+      </c>
+      <c r="J81">
+        <v>576.18799999999999</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>1607.6479999999999</v>
+      </c>
+      <c r="O81">
+        <v>2524.576</v>
+      </c>
+      <c r="P81">
+        <v>750.94500000000005</v>
+      </c>
+      <c r="Q81">
+        <v>55.537999999999997</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>865.55700000000002</v>
+      </c>
+      <c r="U81">
+        <v>577.14099999999996</v>
+      </c>
+      <c r="V81">
+        <v>122.018</v>
+      </c>
+      <c r="W81">
+        <v>-9.5809999999999995</v>
+      </c>
+      <c r="X81">
+        <v>-51.396000000000001</v>
+      </c>
+      <c r="Y81">
+        <v>113.764</v>
+      </c>
+      <c r="Z81">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="AA81">
+        <v>73.623999999999995</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>31.983000000000001</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>1077.1990000000001</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>960.37099999999998</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>34.575000000000003</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2201.0100000000002</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>3287.3989999999999</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>792.32299999999998</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>558.81100000000004</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>1529.6020000000001</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>2413.2919999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>728.03</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>81.129000000000005</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>5260</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>874.10699999999997</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>658.27</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>214.06899999999999</v>
       </c>
-      <c r="W42">
+      <c r="W82">
         <v>-9.58</v>
       </c>
-      <c r="X42">
+      <c r="X82">
         <v>-25.052</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>112.651</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>1.016</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>31.983000000000001</v>
       </c>
     </row>
